--- a/state_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
+++ b/state_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U153"/>
+  <dimension ref="A1:U169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.008</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009276407096681099</v>
+        <v>0.0092765977089689</v>
       </c>
       <c r="H3" t="n">
         <v>0.023</v>
@@ -732,7 +732,7 @@
         <v>0.008</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009276407096681099</v>
+        <v>0.0092765977089689</v>
       </c>
       <c r="H4" t="n">
         <v>0.023</v>
@@ -1153,7 +1153,7 @@
         <v>0.008580000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0144886219992299</v>
+        <v>0.0144894851136709</v>
       </c>
       <c r="H9" t="n">
         <v>0.0599642428082198</v>
@@ -1234,7 +1234,7 @@
         <v>0.008580000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0144886219992299</v>
+        <v>0.0144894851136709</v>
       </c>
       <c r="H10" t="n">
         <v>0.0599642428082198</v>
@@ -1470,16 +1470,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.665</v>
+        <v>0.6648500000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.664232142857143</v>
+        <v>0.664203571428571</v>
       </c>
       <c r="H13" t="n">
         <v>1.125</v>
       </c>
       <c r="I13" t="n">
-        <v>1.0322</v>
+        <v>1.03195</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1490,7 +1490,7 @@
         <v>0.89946</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00224</v>
+        <v>1.00234</v>
       </c>
       <c r="O13" t="n">
         <v>1845196</v>
@@ -1547,16 +1547,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.665</v>
+        <v>0.6648500000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.664232142857143</v>
+        <v>0.664203571428571</v>
       </c>
       <c r="H14" t="n">
         <v>1.125</v>
       </c>
       <c r="I14" t="n">
-        <v>1.0322</v>
+        <v>1.03195</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
         <v>0.89946</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00224</v>
+        <v>1.00234</v>
       </c>
       <c r="O14" t="n">
         <v>1845196</v>
@@ -2020,7 +2020,7 @@
         <v>0.008</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008593609611340799</v>
+        <v>0.0085936406195116</v>
       </c>
       <c r="H20" t="n">
         <v>0.022</v>
@@ -2101,7 +2101,7 @@
         <v>0.008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008593609611340799</v>
+        <v>0.0085936406195116</v>
       </c>
       <c r="H21" t="n">
         <v>0.022</v>
@@ -2522,7 +2522,7 @@
         <v>0.00601</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0129088006093754</v>
+        <v>0.0129109175921514</v>
       </c>
       <c r="H26" t="n">
         <v>0.0599642428082198</v>
@@ -2533,7 +2533,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.00232</v>
+        <v>0.00234</v>
       </c>
       <c r="M26" t="n">
         <v>0.02766</v>
@@ -2603,7 +2603,7 @@
         <v>0.00601</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0129088006093754</v>
+        <v>0.0129109175921514</v>
       </c>
       <c r="H27" t="n">
         <v>0.0599642428082198</v>
@@ -2614,7 +2614,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.00232</v>
+        <v>0.00234</v>
       </c>
       <c r="M27" t="n">
         <v>0.02766</v>
@@ -2839,16 +2839,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.676</v>
+        <v>0.6756</v>
       </c>
       <c r="G30" t="n">
-        <v>0.689847457627119</v>
+        <v>0.689842372881356</v>
       </c>
       <c r="H30" t="n">
         <v>1.125</v>
       </c>
       <c r="I30" t="n">
-        <v>1.0283</v>
+        <v>1.02812</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -2856,10 +2856,10 @@
         <v>0.4695</v>
       </c>
       <c r="M30" t="n">
-        <v>0.97811</v>
+        <v>0.97827</v>
       </c>
       <c r="N30" t="n">
-        <v>1.0059</v>
+        <v>1.00608</v>
       </c>
       <c r="O30" t="n">
         <v>1845196</v>
@@ -2916,16 +2916,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.676</v>
+        <v>0.6756</v>
       </c>
       <c r="G31" t="n">
-        <v>0.689847457627119</v>
+        <v>0.689842372881356</v>
       </c>
       <c r="H31" t="n">
         <v>1.125</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0283</v>
+        <v>1.02812</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2933,10 +2933,10 @@
         <v>0.4695</v>
       </c>
       <c r="M31" t="n">
-        <v>0.97811</v>
+        <v>0.97827</v>
       </c>
       <c r="N31" t="n">
-        <v>1.0059</v>
+        <v>1.00608</v>
       </c>
       <c r="O31" t="n">
         <v>1845196</v>
@@ -3389,7 +3389,7 @@
         <v>0.008</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0088100485505999</v>
+        <v>0.008809839482932199</v>
       </c>
       <c r="H37" t="n">
         <v>0.031</v>
@@ -3470,7 +3470,7 @@
         <v>0.008</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0088100485505999</v>
+        <v>0.008809839482932199</v>
       </c>
       <c r="H38" t="n">
         <v>0.031</v>
@@ -3891,7 +3891,7 @@
         <v>0.003</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0099124659030888</v>
+        <v>0.009915228167610301</v>
       </c>
       <c r="H43" t="n">
         <v>0.0599642428082198</v>
@@ -3902,7 +3902,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.00171</v>
+        <v>0.00172</v>
       </c>
       <c r="M43" t="n">
         <v>0.01715</v>
@@ -3972,7 +3972,7 @@
         <v>0.003</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0099124659030888</v>
+        <v>0.009915228167610301</v>
       </c>
       <c r="H44" t="n">
         <v>0.0599642428082198</v>
@@ -3983,7 +3983,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.00171</v>
+        <v>0.00172</v>
       </c>
       <c r="M44" t="n">
         <v>0.01715</v>
@@ -4211,7 +4211,7 @@
         <v>0.6835</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7031666666666671</v>
+        <v>0.703161666666667</v>
       </c>
       <c r="H47" t="n">
         <v>1.265</v>
@@ -4222,13 +4222,13 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.4505</v>
+        <v>0.45045</v>
       </c>
       <c r="M47" t="n">
         <v>0.986</v>
       </c>
       <c r="N47" t="n">
-        <v>1.0435</v>
+        <v>1.04338</v>
       </c>
       <c r="O47" t="n">
         <v>1845196</v>
@@ -4288,7 +4288,7 @@
         <v>0.6835</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7031666666666671</v>
+        <v>0.703161666666667</v>
       </c>
       <c r="H48" t="n">
         <v>1.265</v>
@@ -4299,13 +4299,13 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.4505</v>
+        <v>0.45045</v>
       </c>
       <c r="M48" t="n">
         <v>0.986</v>
       </c>
       <c r="N48" t="n">
-        <v>1.0435</v>
+        <v>1.04338</v>
       </c>
       <c r="O48" t="n">
         <v>1845196</v>
@@ -4758,7 +4758,7 @@
         <v>0.008</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0088947189696353</v>
+        <v>0.008894456318692699</v>
       </c>
       <c r="H54" t="n">
         <v>0.031</v>
@@ -4839,7 +4839,7 @@
         <v>0.008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0088947189696353</v>
+        <v>0.008894456318692699</v>
       </c>
       <c r="H55" t="n">
         <v>0.031</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.00235</v>
+        <v>0.00236</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0068854250899309</v>
+        <v>0.0068856929712089</v>
       </c>
       <c r="H60" t="n">
         <v>0.0440465704764623</v>
@@ -5271,7 +5271,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.00171</v>
+        <v>0.00172</v>
       </c>
       <c r="M60" t="n">
         <v>0.01157</v>
@@ -5338,10 +5338,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.00235</v>
+        <v>0.00236</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0068854250899309</v>
+        <v>0.0068856929712089</v>
       </c>
       <c r="H61" t="n">
         <v>0.0440465704764623</v>
@@ -5352,7 +5352,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.00171</v>
+        <v>0.00172</v>
       </c>
       <c r="M61" t="n">
         <v>0.01157</v>
@@ -5580,7 +5580,7 @@
         <v>0.697</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7038</v>
+        <v>0.7037949999999999</v>
       </c>
       <c r="H64" t="n">
         <v>1.29</v>
@@ -5591,10 +5591,10 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.4255</v>
+        <v>0.425</v>
       </c>
       <c r="M64" t="n">
-        <v>0.9901</v>
+        <v>0.99013</v>
       </c>
       <c r="N64" t="n">
         <v>1.073</v>
@@ -5657,7 +5657,7 @@
         <v>0.697</v>
       </c>
       <c r="G65" t="n">
-        <v>0.7038</v>
+        <v>0.7037949999999999</v>
       </c>
       <c r="H65" t="n">
         <v>1.29</v>
@@ -5668,10 +5668,10 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.4255</v>
+        <v>0.425</v>
       </c>
       <c r="M65" t="n">
-        <v>0.9901</v>
+        <v>0.99013</v>
       </c>
       <c r="N65" t="n">
         <v>1.073</v>
@@ -6127,7 +6127,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>0.009457921368634501</v>
+        <v>0.009457356037389999</v>
       </c>
       <c r="H71" t="n">
         <v>0.031</v>
@@ -6208,7 +6208,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>0.009457921368634501</v>
+        <v>0.009457356037389999</v>
       </c>
       <c r="H72" t="n">
         <v>0.031</v>
@@ -6626,10 +6626,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.00302</v>
+        <v>0.00301</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0058614985713222</v>
+        <v>0.005855034920745</v>
       </c>
       <c r="H77" t="n">
         <v>0.0401337195550442</v>
@@ -6640,7 +6640,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
-        <v>0.00237</v>
+        <v>0.00236</v>
       </c>
       <c r="M77" t="n">
         <v>0.00979</v>
@@ -6707,10 +6707,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.00302</v>
+        <v>0.00301</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0058614985713222</v>
+        <v>0.005855034920745</v>
       </c>
       <c r="H78" t="n">
         <v>0.0401337195550442</v>
@@ -6721,7 +6721,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00237</v>
+        <v>0.00236</v>
       </c>
       <c r="M78" t="n">
         <v>0.00979</v>
@@ -6949,7 +6949,7 @@
         <v>0.695</v>
       </c>
       <c r="G81" t="n">
-        <v>0.706338983050847</v>
+        <v>0.706342372881356</v>
       </c>
       <c r="H81" t="n">
         <v>1.29</v>
@@ -6960,10 +6960,10 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.4295</v>
+        <v>0.42925</v>
       </c>
       <c r="M81" t="n">
-        <v>0.99299</v>
+        <v>0.99304</v>
       </c>
       <c r="N81" t="n">
         <v>1.0762</v>
@@ -7026,7 +7026,7 @@
         <v>0.695</v>
       </c>
       <c r="G82" t="n">
-        <v>0.706338983050847</v>
+        <v>0.706342372881356</v>
       </c>
       <c r="H82" t="n">
         <v>1.29</v>
@@ -7037,10 +7037,10 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.4295</v>
+        <v>0.42925</v>
       </c>
       <c r="M82" t="n">
-        <v>0.99299</v>
+        <v>0.99304</v>
       </c>
       <c r="N82" t="n">
         <v>1.0762</v>
@@ -7415,7 +7415,7 @@
         <v>1.2</v>
       </c>
       <c r="G87" t="n">
-        <v>1.39411503079514</v>
+        <v>1.40880238758664</v>
       </c>
       <c r="H87" t="n">
         <v>5.2</v>
@@ -7429,7 +7429,7 @@
         <v>1.52</v>
       </c>
       <c r="M87" t="n">
-        <v>2.0337</v>
+        <v>2.247</v>
       </c>
       <c r="N87" t="n">
         <v>2.782</v>
@@ -7496,7 +7496,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0093057711121288</v>
+        <v>0.0093050717523396</v>
       </c>
       <c r="H88" t="n">
         <v>0.031</v>
@@ -7577,7 +7577,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0093057711121288</v>
+        <v>0.0093050717523396</v>
       </c>
       <c r="H89" t="n">
         <v>0.031</v>
@@ -7998,7 +7998,7 @@
         <v>0.00349</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0058512501089856</v>
+        <v>0.0058250395613937</v>
       </c>
       <c r="H94" t="n">
         <v>0.0401337195550442</v>
@@ -8015,7 +8015,7 @@
         <v>0.00979</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01353</v>
+        <v>0.01337</v>
       </c>
       <c r="O94" t="n">
         <v>1845196</v>
@@ -8079,7 +8079,7 @@
         <v>0.00349</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0058512501089856</v>
+        <v>0.0058250395613937</v>
       </c>
       <c r="H95" t="n">
         <v>0.0401337195550442</v>
@@ -8096,7 +8096,7 @@
         <v>0.00979</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01353</v>
+        <v>0.01337</v>
       </c>
       <c r="O95" t="n">
         <v>1845196</v>
@@ -8318,7 +8318,7 @@
         <v>0.7</v>
       </c>
       <c r="G98" t="n">
-        <v>0.710206896551724</v>
+        <v>0.710220689655172</v>
       </c>
       <c r="H98" t="n">
         <v>1.29</v>
@@ -8395,7 +8395,7 @@
         <v>0.7</v>
       </c>
       <c r="G99" t="n">
-        <v>0.710206896551724</v>
+        <v>0.710220689655172</v>
       </c>
       <c r="H99" t="n">
         <v>1.29</v>
@@ -8784,7 +8784,7 @@
         <v>1.1</v>
       </c>
       <c r="G104" t="n">
-        <v>1.2764917680029</v>
+        <v>1.29237809269575</v>
       </c>
       <c r="H104" t="n">
         <v>5.2</v>
@@ -8798,7 +8798,7 @@
         <v>1.415</v>
       </c>
       <c r="M104" t="n">
-        <v>1.8836</v>
+        <v>1.9534</v>
       </c>
       <c r="N104" t="n">
         <v>3.006</v>
@@ -8865,7 +8865,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>0.009055387567516501</v>
+        <v>0.009054743185736</v>
       </c>
       <c r="H105" t="n">
         <v>0.031</v>
@@ -8946,7 +8946,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>0.009055387567516501</v>
+        <v>0.009054743185736</v>
       </c>
       <c r="H106" t="n">
         <v>0.031</v>
@@ -9367,7 +9367,7 @@
         <v>0.00603</v>
       </c>
       <c r="G111" t="n">
-        <v>0.007198032351552</v>
+        <v>0.0071678054184639</v>
       </c>
       <c r="H111" t="n">
         <v>0.0401337195550442</v>
@@ -9378,7 +9378,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.008059999999999999</v>
+        <v>0.007889999999999999</v>
       </c>
       <c r="M111" t="n">
         <v>0.01052</v>
@@ -9448,7 +9448,7 @@
         <v>0.00603</v>
       </c>
       <c r="G112" t="n">
-        <v>0.007198032351552</v>
+        <v>0.0071678054184639</v>
       </c>
       <c r="H112" t="n">
         <v>0.0401337195550442</v>
@@ -9459,7 +9459,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.008059999999999999</v>
+        <v>0.007889999999999999</v>
       </c>
       <c r="M112" t="n">
         <v>0.01052</v>
@@ -9687,7 +9687,7 @@
         <v>0.6115</v>
       </c>
       <c r="G115" t="n">
-        <v>0.6824285714285711</v>
+        <v>0.6824375</v>
       </c>
       <c r="H115" t="n">
         <v>1.29</v>
@@ -9764,7 +9764,7 @@
         <v>0.6115</v>
       </c>
       <c r="G116" t="n">
-        <v>0.6824285714285711</v>
+        <v>0.6824375</v>
       </c>
       <c r="H116" t="n">
         <v>1.29</v>
@@ -10153,13 +10153,13 @@
         <v>0.864</v>
       </c>
       <c r="G121" t="n">
-        <v>0.897899913644675</v>
+        <v>0.917859654925435</v>
       </c>
       <c r="H121" t="n">
         <v>2.6</v>
       </c>
       <c r="I121" t="n">
-        <v>1.925</v>
+        <v>2.29697</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -10170,7 +10170,7 @@
         <v>1.5461</v>
       </c>
       <c r="N121" t="n">
-        <v>1.8638</v>
+        <v>1.908</v>
       </c>
       <c r="O121" t="n">
         <v>1845196</v>
@@ -10234,7 +10234,7 @@
         <v>0.008</v>
       </c>
       <c r="G122" t="n">
-        <v>0.008268778327238401</v>
+        <v>0.008268335402038101</v>
       </c>
       <c r="H122" t="n">
         <v>0.021</v>
@@ -10315,7 +10315,7 @@
         <v>0.008</v>
       </c>
       <c r="G123" t="n">
-        <v>0.008268778327238401</v>
+        <v>0.008268335402038101</v>
       </c>
       <c r="H123" t="n">
         <v>0.021</v>
@@ -10733,10 +10733,10 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.0065</v>
+        <v>0.00645</v>
       </c>
       <c r="G128" t="n">
-        <v>0.008294184342164401</v>
+        <v>0.008262725256161301</v>
       </c>
       <c r="H128" t="n">
         <v>0.0401337195550442</v>
@@ -10747,7 +10747,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.008059999999999999</v>
+        <v>0.007889999999999999</v>
       </c>
       <c r="M128" t="n">
         <v>0.01141</v>
@@ -10814,10 +10814,10 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.0065</v>
+        <v>0.00645</v>
       </c>
       <c r="G129" t="n">
-        <v>0.008294184342164401</v>
+        <v>0.008262725256161301</v>
       </c>
       <c r="H129" t="n">
         <v>0.0401337195550442</v>
@@ -10828,7 +10828,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.008059999999999999</v>
+        <v>0.007889999999999999</v>
       </c>
       <c r="M129" t="n">
         <v>0.01141</v>
@@ -11522,7 +11522,7 @@
         <v>0.007</v>
       </c>
       <c r="G138" t="n">
-        <v>0.008177482084810801</v>
+        <v>0.008176995735571201</v>
       </c>
       <c r="H138" t="n">
         <v>0.021</v>
@@ -11603,7 +11603,7 @@
         <v>0.007</v>
       </c>
       <c r="G139" t="n">
-        <v>0.008177482084810801</v>
+        <v>0.008176995735571201</v>
       </c>
       <c r="H139" t="n">
         <v>0.021</v>
@@ -11684,7 +11684,7 @@
         <v>170</v>
       </c>
       <c r="G140" t="n">
-        <v>586.470017471697</v>
+        <v>586.463244705456</v>
       </c>
       <c r="H140" t="n">
         <v>6200</v>
@@ -11769,7 +11769,7 @@
         <v>170</v>
       </c>
       <c r="G141" t="n">
-        <v>586.470017471697</v>
+        <v>586.463244705456</v>
       </c>
       <c r="H141" t="n">
         <v>6200</v>
@@ -11854,7 +11854,7 @@
         <v>170</v>
       </c>
       <c r="G142" t="n">
-        <v>586.470017471697</v>
+        <v>586.463244705456</v>
       </c>
       <c r="H142" t="n">
         <v>6200</v>
@@ -11939,7 +11939,7 @@
         <v>170</v>
       </c>
       <c r="G143" t="n">
-        <v>586.470017471697</v>
+        <v>586.463244705456</v>
       </c>
       <c r="H143" t="n">
         <v>6200</v>
@@ -12021,10 +12021,10 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.007820000000000001</v>
+        <v>0.00764</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0089504556823929</v>
+        <v>0.0089186653357449</v>
       </c>
       <c r="H144" t="n">
         <v>0.0329027150070411</v>
@@ -12038,7 +12038,7 @@
         <v>0.00903</v>
       </c>
       <c r="M144" t="n">
-        <v>0.01321</v>
+        <v>0.01309</v>
       </c>
       <c r="N144" t="n">
         <v>0.01721</v>
@@ -12102,10 +12102,10 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.007820000000000001</v>
+        <v>0.00764</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0089504556823929</v>
+        <v>0.0089186653357449</v>
       </c>
       <c r="H145" t="n">
         <v>0.0329027150070411</v>
@@ -12119,7 +12119,7 @@
         <v>0.00903</v>
       </c>
       <c r="M145" t="n">
-        <v>0.01321</v>
+        <v>0.01309</v>
       </c>
       <c r="N145" t="n">
         <v>0.01721</v>
@@ -12355,7 +12355,7 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
-        <v>0.5105</v>
+        <v>0.51025</v>
       </c>
       <c r="M148" t="n">
         <v>0.88</v>
@@ -12432,7 +12432,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
-        <v>0.5105</v>
+        <v>0.51025</v>
       </c>
       <c r="M149" t="n">
         <v>0.88</v>
@@ -12780,6 +12780,1294 @@
         </is>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.0074106282381184</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.0141</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P154" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.0074106282381184</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.0141</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P155" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>135</v>
+      </c>
+      <c r="G156" t="n">
+        <v>338.51303083288</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J156" t="n">
+        <v>22.9166666666667</v>
+      </c>
+      <c r="K156" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="L156" t="n">
+        <v>52</v>
+      </c>
+      <c r="M156" t="n">
+        <v>708.36</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1198</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P156" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>135</v>
+      </c>
+      <c r="G157" t="n">
+        <v>338.51303083288</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J157" t="n">
+        <v>22.9166666666667</v>
+      </c>
+      <c r="K157" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="L157" t="n">
+        <v>52</v>
+      </c>
+      <c r="M157" t="n">
+        <v>708.36</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1198</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P157" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>135</v>
+      </c>
+      <c r="G158" t="n">
+        <v>338.51303083288</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J158" t="n">
+        <v>22.9166666666667</v>
+      </c>
+      <c r="K158" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="L158" t="n">
+        <v>52</v>
+      </c>
+      <c r="M158" t="n">
+        <v>708.36</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1198</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P158" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>135</v>
+      </c>
+      <c r="G159" t="n">
+        <v>338.51303083288</v>
+      </c>
+      <c r="H159" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1500</v>
+      </c>
+      <c r="J159" t="n">
+        <v>22.9166666666667</v>
+      </c>
+      <c r="K159" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="L159" t="n">
+        <v>52</v>
+      </c>
+      <c r="M159" t="n">
+        <v>708.36</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1198</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P159" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.007889999999999999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.009438736902649099</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.0329027150070411</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.02411</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>0.009039999999999999</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.01463</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.02231</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P160" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.007889999999999999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.009438736902649099</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.0329027150070411</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.02411</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>0.009039999999999999</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.01463</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.02231</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P161" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.8801</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.99116</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P162" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0.8801</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.99116</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P163" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.666958333333333</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.0459</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0.88846</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1.0048</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P164" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.666958333333333</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.0459</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0.88846</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1.0048</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P165" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.837916666666667</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1.1464</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P166" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.837916666666667</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1.1464</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P167" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.0261875</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.04034</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.0556</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P168" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Tiraumea u/s Manawatu Confluence</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.0261875</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0.04034</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.0556</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1845196</v>
+      </c>
+      <c r="P169" t="n">
+        <v>5525095</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
+++ b/state_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
@@ -7415,7 +7415,7 @@
         <v>1.2</v>
       </c>
       <c r="G87" t="n">
-        <v>1.40880238758664</v>
+        <v>1.3956157131779</v>
       </c>
       <c r="H87" t="n">
         <v>5.2</v>
@@ -7429,7 +7429,7 @@
         <v>1.52</v>
       </c>
       <c r="M87" t="n">
-        <v>2.247</v>
+        <v>2.0337</v>
       </c>
       <c r="N87" t="n">
         <v>2.782</v>
@@ -8784,7 +8784,7 @@
         <v>1.1</v>
       </c>
       <c r="G104" t="n">
-        <v>1.29237809269575</v>
+        <v>1.27811495506998</v>
       </c>
       <c r="H104" t="n">
         <v>5.2</v>
@@ -8798,7 +8798,7 @@
         <v>1.415</v>
       </c>
       <c r="M104" t="n">
-        <v>1.9534</v>
+        <v>1.8836</v>
       </c>
       <c r="N104" t="n">
         <v>3.006</v>
@@ -10153,13 +10153,13 @@
         <v>0.864</v>
       </c>
       <c r="G121" t="n">
-        <v>0.917859654925435</v>
+        <v>0.899939302523816</v>
       </c>
       <c r="H121" t="n">
         <v>2.6</v>
       </c>
       <c r="I121" t="n">
-        <v>2.29697</v>
+        <v>1.925</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -10170,7 +10170,7 @@
         <v>1.5461</v>
       </c>
       <c r="N121" t="n">
-        <v>1.908</v>
+        <v>1.86727</v>
       </c>
       <c r="O121" t="n">
         <v>1845196</v>

--- a/state_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
+++ b/state_results/Rivers/TiraumeausManawatuConfluence_74cfa18216.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:U185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +660,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>0.9</v>
@@ -672,7 +675,7 @@
         <v>2.4675</v>
       </c>
       <c r="L2">
-        <v>1.365</v>
+        <v>1.1</v>
       </c>
       <c r="M2">
         <v>1.8325</v>
@@ -687,19 +690,19 @@
         <v>5525095</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -716,13 +719,13 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>0.008</v>
       </c>
       <c r="G3">
-        <v>0.0092765977089689</v>
+        <v>0.0092744162434898</v>
       </c>
       <c r="H3">
         <v>0.023</v>
@@ -746,19 +749,19 @@
         <v>5525095</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -775,13 +778,13 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>0.008</v>
       </c>
       <c r="G4">
-        <v>0.0092765977089689</v>
+        <v>0.0092744162434898</v>
       </c>
       <c r="H4">
         <v>0.023</v>
@@ -805,19 +808,19 @@
         <v>5525095</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -834,7 +837,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>195</v>
@@ -855,10 +858,10 @@
         <v>37.5</v>
       </c>
       <c r="L5">
-        <v>177.5</v>
+        <v>190</v>
       </c>
       <c r="M5">
-        <v>999.02</v>
+        <v>999.0119999999999</v>
       </c>
       <c r="N5">
         <v>2420</v>
@@ -870,19 +873,19 @@
         <v>5525095</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -899,7 +902,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>195</v>
@@ -920,10 +923,10 @@
         <v>37.5</v>
       </c>
       <c r="L6">
-        <v>177.5</v>
+        <v>190</v>
       </c>
       <c r="M6">
-        <v>999.02</v>
+        <v>999.0119999999999</v>
       </c>
       <c r="N6">
         <v>2420</v>
@@ -935,19 +938,19 @@
         <v>5525095</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -964,7 +967,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>195</v>
@@ -985,10 +988,10 @@
         <v>37.5</v>
       </c>
       <c r="L7">
-        <v>177.5</v>
+        <v>190</v>
       </c>
       <c r="M7">
-        <v>999.02</v>
+        <v>999.0119999999999</v>
       </c>
       <c r="N7">
         <v>2420</v>
@@ -1000,19 +1003,19 @@
         <v>5525095</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1029,7 +1032,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>195</v>
@@ -1050,10 +1053,10 @@
         <v>37.5</v>
       </c>
       <c r="L8">
-        <v>177.5</v>
+        <v>190</v>
       </c>
       <c r="M8">
-        <v>999.02</v>
+        <v>999.0119999999999</v>
       </c>
       <c r="N8">
         <v>2420</v>
@@ -1065,19 +1068,19 @@
         <v>5525095</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1094,13 +1097,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>0.008580000000000001</v>
       </c>
       <c r="G9">
-        <v>0.0144894851136709</v>
+        <v>0.0144898291030562</v>
       </c>
       <c r="H9">
         <v>0.0599642428082198</v>
@@ -1124,19 +1127,19 @@
         <v>5525095</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1153,13 +1156,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>0.008580000000000001</v>
       </c>
       <c r="G10">
-        <v>0.0144894851136709</v>
+        <v>0.0144898291030562</v>
       </c>
       <c r="H10">
         <v>0.0599642428082198</v>
@@ -1183,19 +1186,19 @@
         <v>5525095</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1212,7 +1215,7 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>0.6283</v>
@@ -1227,7 +1230,7 @@
         <v>1.02325</v>
       </c>
       <c r="L11">
-        <v>0.4473</v>
+        <v>0.5117</v>
       </c>
       <c r="M11">
         <v>0.86972</v>
@@ -1242,19 +1245,19 @@
         <v>5525095</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1271,7 +1274,7 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>0.6283</v>
@@ -1286,7 +1289,7 @@
         <v>1.02325</v>
       </c>
       <c r="L12">
-        <v>0.4473</v>
+        <v>0.5117</v>
       </c>
       <c r="M12">
         <v>0.86972</v>
@@ -1301,19 +1304,19 @@
         <v>5525095</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1327,7 +1330,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>0.6648500000000001</v>
@@ -1342,7 +1345,7 @@
         <v>1.03195</v>
       </c>
       <c r="L13">
-        <v>0.4695</v>
+        <v>0.5207000000000001</v>
       </c>
       <c r="M13">
         <v>0.89946</v>
@@ -1357,19 +1360,19 @@
         <v>5525095</v>
       </c>
       <c r="Q13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1383,7 +1386,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <v>0.6648500000000001</v>
@@ -1398,7 +1401,7 @@
         <v>1.03195</v>
       </c>
       <c r="L14">
-        <v>0.4695</v>
+        <v>0.5207000000000001</v>
       </c>
       <c r="M14">
         <v>0.89946</v>
@@ -1413,19 +1416,19 @@
         <v>5525095</v>
       </c>
       <c r="Q14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1439,7 +1442,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>0.86</v>
@@ -1454,7 +1457,7 @@
         <v>1.743</v>
       </c>
       <c r="L15">
-        <v>0.715</v>
+        <v>0.7575</v>
       </c>
       <c r="M15">
         <v>1.20196</v>
@@ -1469,19 +1472,19 @@
         <v>5525095</v>
       </c>
       <c r="Q15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1495,7 +1498,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <v>0.86</v>
@@ -1510,7 +1513,7 @@
         <v>1.743</v>
       </c>
       <c r="L16">
-        <v>0.715</v>
+        <v>0.7575</v>
       </c>
       <c r="M16">
         <v>1.20196</v>
@@ -1525,19 +1528,19 @@
         <v>5525095</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1551,7 +1554,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>0.026</v>
@@ -1566,7 +1569,7 @@
         <v>0.331</v>
       </c>
       <c r="L17">
-        <v>0.0235</v>
+        <v>0.021</v>
       </c>
       <c r="M17">
         <v>0.05792</v>
@@ -1581,19 +1584,19 @@
         <v>5525095</v>
       </c>
       <c r="Q17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1607,7 +1610,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <v>0.026</v>
@@ -1622,7 +1625,7 @@
         <v>0.331</v>
       </c>
       <c r="L18">
-        <v>0.0235</v>
+        <v>0.021</v>
       </c>
       <c r="M18">
         <v>0.05792</v>
@@ -1637,19 +1640,19 @@
         <v>5525095</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1666,7 +1669,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19">
         <v>0.9</v>
@@ -1681,7 +1684,7 @@
         <v>2.472</v>
       </c>
       <c r="L19">
-        <v>1.53</v>
+        <v>1.2</v>
       </c>
       <c r="M19">
         <v>1.9765</v>
@@ -1696,19 +1699,19 @@
         <v>5525095</v>
       </c>
       <c r="Q19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1725,13 +1728,13 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20">
         <v>0.008</v>
       </c>
       <c r="G20">
-        <v>0.0085936406195116</v>
+        <v>0.0085893876114802</v>
       </c>
       <c r="H20">
         <v>0.022</v>
@@ -1740,7 +1743,7 @@
         <v>0.01755</v>
       </c>
       <c r="L20">
-        <v>0.0065</v>
+        <v>0.007</v>
       </c>
       <c r="M20">
         <v>0.013</v>
@@ -1755,19 +1758,19 @@
         <v>5525095</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1784,13 +1787,13 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21">
         <v>0.008</v>
       </c>
       <c r="G21">
-        <v>0.0085936406195116</v>
+        <v>0.0085893876114802</v>
       </c>
       <c r="H21">
         <v>0.022</v>
@@ -1799,7 +1802,7 @@
         <v>0.01755</v>
       </c>
       <c r="L21">
-        <v>0.0065</v>
+        <v>0.007</v>
       </c>
       <c r="M21">
         <v>0.013</v>
@@ -1814,19 +1817,19 @@
         <v>5525095</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1843,13 +1846,13 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22">
         <v>190</v>
       </c>
       <c r="G22">
-        <v>588.457627118644</v>
+        <v>588.462711864407</v>
       </c>
       <c r="H22">
         <v>4200</v>
@@ -1864,7 +1867,7 @@
         <v>33.8983050847458</v>
       </c>
       <c r="L22">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="M22">
         <v>901.42</v>
@@ -1879,19 +1882,19 @@
         <v>5525095</v>
       </c>
       <c r="Q22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1908,13 +1911,13 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>190</v>
       </c>
       <c r="G23">
-        <v>588.457627118644</v>
+        <v>588.462711864407</v>
       </c>
       <c r="H23">
         <v>4200</v>
@@ -1929,7 +1932,7 @@
         <v>33.8983050847458</v>
       </c>
       <c r="L23">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="M23">
         <v>901.42</v>
@@ -1944,19 +1947,19 @@
         <v>5525095</v>
       </c>
       <c r="Q23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1973,13 +1976,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24">
         <v>190</v>
       </c>
       <c r="G24">
-        <v>588.457627118644</v>
+        <v>588.462711864407</v>
       </c>
       <c r="H24">
         <v>4200</v>
@@ -1994,7 +1997,7 @@
         <v>33.8983050847458</v>
       </c>
       <c r="L24">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="M24">
         <v>901.42</v>
@@ -2009,19 +2012,19 @@
         <v>5525095</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2038,13 +2041,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>190</v>
       </c>
       <c r="G25">
-        <v>588.457627118644</v>
+        <v>588.462711864407</v>
       </c>
       <c r="H25">
         <v>4200</v>
@@ -2059,7 +2062,7 @@
         <v>33.8983050847458</v>
       </c>
       <c r="L25">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="M25">
         <v>901.42</v>
@@ -2074,19 +2077,19 @@
         <v>5525095</v>
       </c>
       <c r="Q25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2103,13 +2106,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <v>0.00601</v>
       </c>
       <c r="G26">
-        <v>0.0129109175921514</v>
+        <v>0.0129121571611458</v>
       </c>
       <c r="H26">
         <v>0.0599642428082198</v>
@@ -2118,7 +2121,7 @@
         <v>0.05079</v>
       </c>
       <c r="L26">
-        <v>0.00234</v>
+        <v>0.00292</v>
       </c>
       <c r="M26">
         <v>0.02766</v>
@@ -2133,19 +2136,19 @@
         <v>5525095</v>
       </c>
       <c r="Q26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2162,13 +2165,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>0.00601</v>
       </c>
       <c r="G27">
-        <v>0.0129109175921514</v>
+        <v>0.0129121571611458</v>
       </c>
       <c r="H27">
         <v>0.0599642428082198</v>
@@ -2177,7 +2180,7 @@
         <v>0.05079</v>
       </c>
       <c r="L27">
-        <v>0.00234</v>
+        <v>0.00292</v>
       </c>
       <c r="M27">
         <v>0.02766</v>
@@ -2192,19 +2195,19 @@
         <v>5525095</v>
       </c>
       <c r="Q27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2221,7 +2224,7 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28">
         <v>0.6447000000000001</v>
@@ -2236,7 +2239,7 @@
         <v>1.01852</v>
       </c>
       <c r="L28">
-        <v>0.4473</v>
+        <v>0.5152</v>
       </c>
       <c r="M28">
         <v>0.93145</v>
@@ -2251,19 +2254,19 @@
         <v>5525095</v>
       </c>
       <c r="Q28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2280,7 +2283,7 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <v>0.6447000000000001</v>
@@ -2295,7 +2298,7 @@
         <v>1.01852</v>
       </c>
       <c r="L29">
-        <v>0.4473</v>
+        <v>0.5152</v>
       </c>
       <c r="M29">
         <v>0.93145</v>
@@ -2310,19 +2313,19 @@
         <v>5525095</v>
       </c>
       <c r="Q29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2336,7 +2339,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30">
         <v>0.6756</v>
@@ -2351,7 +2354,7 @@
         <v>1.02812</v>
       </c>
       <c r="L30">
-        <v>0.4695</v>
+        <v>0.5247000000000001</v>
       </c>
       <c r="M30">
         <v>0.97827</v>
@@ -2366,19 +2369,19 @@
         <v>5525095</v>
       </c>
       <c r="Q30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2392,7 +2395,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F31">
         <v>0.6756</v>
@@ -2407,7 +2410,7 @@
         <v>1.02812</v>
       </c>
       <c r="L31">
-        <v>0.4695</v>
+        <v>0.5247000000000001</v>
       </c>
       <c r="M31">
         <v>0.97827</v>
@@ -2422,19 +2425,19 @@
         <v>5525095</v>
       </c>
       <c r="Q31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2448,7 +2451,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32">
         <v>0.8804999999999999</v>
@@ -2463,7 +2466,7 @@
         <v>1.3595</v>
       </c>
       <c r="L32">
-        <v>0.715</v>
+        <v>0.7425</v>
       </c>
       <c r="M32">
         <v>1.2</v>
@@ -2478,19 +2481,19 @@
         <v>5525095</v>
       </c>
       <c r="Q32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2504,7 +2507,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33">
         <v>0.8804999999999999</v>
@@ -2519,7 +2522,7 @@
         <v>1.3595</v>
       </c>
       <c r="L33">
-        <v>0.715</v>
+        <v>0.7425</v>
       </c>
       <c r="M33">
         <v>1.2</v>
@@ -2534,19 +2537,19 @@
         <v>5525095</v>
       </c>
       <c r="Q33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2560,7 +2563,7 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F34">
         <v>0.024</v>
@@ -2590,19 +2593,19 @@
         <v>5525095</v>
       </c>
       <c r="Q34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2616,7 +2619,7 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F35">
         <v>0.024</v>
@@ -2646,19 +2649,19 @@
         <v>5525095</v>
       </c>
       <c r="Q35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2675,7 +2678,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F36">
         <v>1.2</v>
@@ -2690,7 +2693,7 @@
         <v>3.692</v>
       </c>
       <c r="L36">
-        <v>1.715</v>
+        <v>1.7</v>
       </c>
       <c r="M36">
         <v>2.4</v>
@@ -2705,19 +2708,19 @@
         <v>5525095</v>
       </c>
       <c r="Q36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2734,13 +2737,13 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>0.008</v>
       </c>
       <c r="G37">
-        <v>0.008809839482932199</v>
+        <v>0.0088029279086187</v>
       </c>
       <c r="H37">
         <v>0.031</v>
@@ -2749,7 +2752,7 @@
         <v>0.019</v>
       </c>
       <c r="L37">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="M37">
         <v>0.0133</v>
@@ -2764,19 +2767,19 @@
         <v>5525095</v>
       </c>
       <c r="Q37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2793,13 +2796,13 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38">
         <v>0.008</v>
       </c>
       <c r="G38">
-        <v>0.008809839482932199</v>
+        <v>0.0088029279086187</v>
       </c>
       <c r="H38">
         <v>0.031</v>
@@ -2808,7 +2811,7 @@
         <v>0.019</v>
       </c>
       <c r="L38">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="M38">
         <v>0.0133</v>
@@ -2823,19 +2826,19 @@
         <v>5525095</v>
       </c>
       <c r="Q38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2852,7 +2855,7 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39">
         <v>162.5</v>
@@ -2873,7 +2876,7 @@
         <v>30</v>
       </c>
       <c r="L39">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="M39">
         <v>483.6</v>
@@ -2888,19 +2891,19 @@
         <v>5525095</v>
       </c>
       <c r="Q39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2917,7 +2920,7 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40">
         <v>162.5</v>
@@ -2938,7 +2941,7 @@
         <v>30</v>
       </c>
       <c r="L40">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="M40">
         <v>483.6</v>
@@ -2953,19 +2956,19 @@
         <v>5525095</v>
       </c>
       <c r="Q40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2982,7 +2985,7 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <v>162.5</v>
@@ -3003,7 +3006,7 @@
         <v>30</v>
       </c>
       <c r="L41">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="M41">
         <v>483.6</v>
@@ -3018,19 +3021,19 @@
         <v>5525095</v>
       </c>
       <c r="Q41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3047,7 +3050,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F42">
         <v>162.5</v>
@@ -3068,7 +3071,7 @@
         <v>30</v>
       </c>
       <c r="L42">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="M42">
         <v>483.6</v>
@@ -3083,19 +3086,19 @@
         <v>5525095</v>
       </c>
       <c r="Q42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3112,13 +3115,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43">
         <v>0.003</v>
       </c>
       <c r="G43">
-        <v>0.009915228167610301</v>
+        <v>0.009915880600418999</v>
       </c>
       <c r="H43">
         <v>0.0599642428082198</v>
@@ -3127,7 +3130,7 @@
         <v>0.04347</v>
       </c>
       <c r="L43">
-        <v>0.00172</v>
+        <v>0.00241</v>
       </c>
       <c r="M43">
         <v>0.01715</v>
@@ -3142,19 +3145,19 @@
         <v>5525095</v>
       </c>
       <c r="Q43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3171,13 +3174,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44">
         <v>0.003</v>
       </c>
       <c r="G44">
-        <v>0.009915228167610301</v>
+        <v>0.009915880600418999</v>
       </c>
       <c r="H44">
         <v>0.0599642428082198</v>
@@ -3186,7 +3189,7 @@
         <v>0.04347</v>
       </c>
       <c r="L44">
-        <v>0.00172</v>
+        <v>0.00241</v>
       </c>
       <c r="M44">
         <v>0.01715</v>
@@ -3201,19 +3204,19 @@
         <v>5525095</v>
       </c>
       <c r="Q44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3230,7 +3233,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45">
         <v>0.6552</v>
@@ -3245,7 +3248,7 @@
         <v>1.095</v>
       </c>
       <c r="L45">
-        <v>0.4403</v>
+        <v>0.4882</v>
       </c>
       <c r="M45">
         <v>0.9671999999999999</v>
@@ -3260,19 +3263,19 @@
         <v>5525095</v>
       </c>
       <c r="Q45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3289,7 +3292,7 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46">
         <v>0.6552</v>
@@ -3304,7 +3307,7 @@
         <v>1.095</v>
       </c>
       <c r="L46">
-        <v>0.4403</v>
+        <v>0.4882</v>
       </c>
       <c r="M46">
         <v>0.9671999999999999</v>
@@ -3319,19 +3322,19 @@
         <v>5525095</v>
       </c>
       <c r="Q46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3345,7 +3348,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47">
         <v>0.6835</v>
@@ -3360,7 +3363,7 @@
         <v>1.119</v>
       </c>
       <c r="L47">
-        <v>0.45045</v>
+        <v>0.4977</v>
       </c>
       <c r="M47">
         <v>0.986</v>
@@ -3375,19 +3378,19 @@
         <v>5525095</v>
       </c>
       <c r="Q47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3401,7 +3404,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48">
         <v>0.6835</v>
@@ -3416,7 +3419,7 @@
         <v>1.119</v>
       </c>
       <c r="L48">
-        <v>0.45045</v>
+        <v>0.4977</v>
       </c>
       <c r="M48">
         <v>0.986</v>
@@ -3431,19 +3434,19 @@
         <v>5525095</v>
       </c>
       <c r="Q48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3457,7 +3460,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49">
         <v>0.9330000000000001</v>
@@ -3472,7 +3475,7 @@
         <v>1.355</v>
       </c>
       <c r="L49">
-        <v>0.6840000000000001</v>
+        <v>0.713</v>
       </c>
       <c r="M49">
         <v>1.2006</v>
@@ -3487,19 +3490,19 @@
         <v>5525095</v>
       </c>
       <c r="Q49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3513,7 +3516,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50">
         <v>0.9330000000000001</v>
@@ -3528,7 +3531,7 @@
         <v>1.355</v>
       </c>
       <c r="L50">
-        <v>0.6840000000000001</v>
+        <v>0.713</v>
       </c>
       <c r="M50">
         <v>1.2006</v>
@@ -3543,19 +3546,19 @@
         <v>5525095</v>
       </c>
       <c r="Q50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3569,7 +3572,7 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51">
         <v>0.023</v>
@@ -3599,19 +3602,19 @@
         <v>5525095</v>
       </c>
       <c r="Q51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3625,7 +3628,7 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F52">
         <v>0.023</v>
@@ -3655,19 +3658,19 @@
         <v>5525095</v>
       </c>
       <c r="Q52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3684,7 +3687,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F53">
         <v>1.125</v>
@@ -3699,7 +3702,7 @@
         <v>3.68</v>
       </c>
       <c r="L53">
-        <v>1.625</v>
+        <v>1.52</v>
       </c>
       <c r="M53">
         <v>2.4</v>
@@ -3714,19 +3717,19 @@
         <v>5525095</v>
       </c>
       <c r="Q53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3743,13 +3746,13 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F54">
         <v>0.008</v>
       </c>
       <c r="G54">
-        <v>0.008894456318692699</v>
+        <v>0.0088890902720989</v>
       </c>
       <c r="H54">
         <v>0.031</v>
@@ -3758,7 +3761,7 @@
         <v>0.016</v>
       </c>
       <c r="L54">
-        <v>0.0065</v>
+        <v>0.0075</v>
       </c>
       <c r="M54">
         <v>0.013</v>
@@ -3773,19 +3776,19 @@
         <v>5525095</v>
       </c>
       <c r="Q54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3802,13 +3805,13 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F55">
         <v>0.008</v>
       </c>
       <c r="G55">
-        <v>0.008894456318692699</v>
+        <v>0.0088890902720989</v>
       </c>
       <c r="H55">
         <v>0.031</v>
@@ -3817,7 +3820,7 @@
         <v>0.016</v>
       </c>
       <c r="L55">
-        <v>0.0065</v>
+        <v>0.0075</v>
       </c>
       <c r="M55">
         <v>0.013</v>
@@ -3832,19 +3835,19 @@
         <v>5525095</v>
       </c>
       <c r="Q55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3861,7 +3864,7 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F56">
         <v>170</v>
@@ -3882,7 +3885,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L56">
-        <v>153.5</v>
+        <v>175</v>
       </c>
       <c r="M56">
         <v>539.9</v>
@@ -3897,19 +3900,19 @@
         <v>5525095</v>
       </c>
       <c r="Q56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3926,7 +3929,7 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F57">
         <v>170</v>
@@ -3947,7 +3950,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L57">
-        <v>153.5</v>
+        <v>175</v>
       </c>
       <c r="M57">
         <v>539.9</v>
@@ -3962,19 +3965,19 @@
         <v>5525095</v>
       </c>
       <c r="Q57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3991,7 +3994,7 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F58">
         <v>170</v>
@@ -4012,7 +4015,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L58">
-        <v>153.5</v>
+        <v>175</v>
       </c>
       <c r="M58">
         <v>539.9</v>
@@ -4027,19 +4030,19 @@
         <v>5525095</v>
       </c>
       <c r="Q58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4056,7 +4059,7 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F59">
         <v>170</v>
@@ -4077,7 +4080,7 @@
         <v>31.6666666666667</v>
       </c>
       <c r="L59">
-        <v>153.5</v>
+        <v>175</v>
       </c>
       <c r="M59">
         <v>539.9</v>
@@ -4092,19 +4095,19 @@
         <v>5525095</v>
       </c>
       <c r="Q59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4121,13 +4124,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F60">
-        <v>0.00236</v>
+        <v>0.00235</v>
       </c>
       <c r="G60">
-        <v>0.0068856929712089</v>
+        <v>0.0068838551773922</v>
       </c>
       <c r="H60">
         <v>0.0440465704764623</v>
@@ -4136,7 +4139,7 @@
         <v>0.04031</v>
       </c>
       <c r="L60">
-        <v>0.00172</v>
+        <v>0.00207</v>
       </c>
       <c r="M60">
         <v>0.01157</v>
@@ -4151,19 +4154,19 @@
         <v>5525095</v>
       </c>
       <c r="Q60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4180,13 +4183,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F61">
-        <v>0.00236</v>
+        <v>0.00235</v>
       </c>
       <c r="G61">
-        <v>0.0068856929712089</v>
+        <v>0.0068838551773922</v>
       </c>
       <c r="H61">
         <v>0.0440465704764623</v>
@@ -4195,7 +4198,7 @@
         <v>0.04031</v>
       </c>
       <c r="L61">
-        <v>0.00172</v>
+        <v>0.00207</v>
       </c>
       <c r="M61">
         <v>0.01157</v>
@@ -4210,19 +4213,19 @@
         <v>5525095</v>
       </c>
       <c r="Q61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4239,7 +4242,7 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F62">
         <v>0.6725</v>
@@ -4254,7 +4257,7 @@
         <v>1.13</v>
       </c>
       <c r="L62">
-        <v>0.41855</v>
+        <v>0.4508</v>
       </c>
       <c r="M62">
         <v>0.97044</v>
@@ -4269,19 +4272,19 @@
         <v>5525095</v>
       </c>
       <c r="Q62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4298,7 +4301,7 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F63">
         <v>0.6725</v>
@@ -4313,7 +4316,7 @@
         <v>1.13</v>
       </c>
       <c r="L63">
-        <v>0.41855</v>
+        <v>0.4508</v>
       </c>
       <c r="M63">
         <v>0.97044</v>
@@ -4328,19 +4331,19 @@
         <v>5525095</v>
       </c>
       <c r="Q63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4354,7 +4357,7 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64">
         <v>0.697</v>
@@ -4369,7 +4372,7 @@
         <v>1.135</v>
       </c>
       <c r="L64">
-        <v>0.425</v>
+        <v>0.46045</v>
       </c>
       <c r="M64">
         <v>0.99013</v>
@@ -4384,19 +4387,19 @@
         <v>5525095</v>
       </c>
       <c r="Q64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4410,7 +4413,7 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F65">
         <v>0.697</v>
@@ -4425,7 +4428,7 @@
         <v>1.135</v>
       </c>
       <c r="L65">
-        <v>0.425</v>
+        <v>0.46045</v>
       </c>
       <c r="M65">
         <v>0.99013</v>
@@ -4440,19 +4443,19 @@
         <v>5525095</v>
       </c>
       <c r="Q65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4466,7 +4469,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66">
         <v>0.9695</v>
@@ -4481,7 +4484,7 @@
         <v>1.315</v>
       </c>
       <c r="L66">
-        <v>0.642</v>
+        <v>0.699</v>
       </c>
       <c r="M66">
         <v>1.2074</v>
@@ -4496,19 +4499,19 @@
         <v>5525095</v>
       </c>
       <c r="Q66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4522,7 +4525,7 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F67">
         <v>0.9695</v>
@@ -4537,7 +4540,7 @@
         <v>1.315</v>
       </c>
       <c r="L67">
-        <v>0.642</v>
+        <v>0.699</v>
       </c>
       <c r="M67">
         <v>1.2074</v>
@@ -4552,19 +4555,19 @@
         <v>5525095</v>
       </c>
       <c r="Q67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4578,7 +4581,7 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F68">
         <v>0.0245</v>
@@ -4593,7 +4596,7 @@
         <v>0.146</v>
       </c>
       <c r="L68">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="M68">
         <v>0.0452</v>
@@ -4608,19 +4611,19 @@
         <v>5525095</v>
       </c>
       <c r="Q68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4634,7 +4637,7 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69">
         <v>0.0245</v>
@@ -4649,7 +4652,7 @@
         <v>0.146</v>
       </c>
       <c r="L69">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="M69">
         <v>0.0452</v>
@@ -4664,19 +4667,19 @@
         <v>5525095</v>
       </c>
       <c r="Q69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4693,7 +4696,7 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70">
         <v>1.03</v>
@@ -4708,7 +4711,7 @@
         <v>3.68</v>
       </c>
       <c r="L70">
-        <v>1.52</v>
+        <v>1.255</v>
       </c>
       <c r="M70">
         <v>1.97</v>
@@ -4723,19 +4726,19 @@
         <v>5525095</v>
       </c>
       <c r="Q70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4752,13 +4755,13 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F71">
         <v>0.008999999999999999</v>
       </c>
       <c r="G71">
-        <v>0.009457356037389999</v>
+        <v>0.0094480903961417</v>
       </c>
       <c r="H71">
         <v>0.031</v>
@@ -4767,7 +4770,7 @@
         <v>0.01855</v>
       </c>
       <c r="L71">
-        <v>0.0075</v>
+        <v>0.008</v>
       </c>
       <c r="M71">
         <v>0.01347</v>
@@ -4782,19 +4785,19 @@
         <v>5525095</v>
       </c>
       <c r="Q71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4811,13 +4814,13 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72">
         <v>0.008999999999999999</v>
       </c>
       <c r="G72">
-        <v>0.009457356037389999</v>
+        <v>0.0094480903961417</v>
       </c>
       <c r="H72">
         <v>0.031</v>
@@ -4826,7 +4829,7 @@
         <v>0.01855</v>
       </c>
       <c r="L72">
-        <v>0.0075</v>
+        <v>0.008</v>
       </c>
       <c r="M72">
         <v>0.01347</v>
@@ -4841,19 +4844,19 @@
         <v>5525095</v>
       </c>
       <c r="Q72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4870,7 +4873,7 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F73">
         <v>176</v>
@@ -4891,7 +4894,7 @@
         <v>37.2881355932203</v>
       </c>
       <c r="L73">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="M73">
         <v>721.78</v>
@@ -4906,19 +4909,19 @@
         <v>5525095</v>
       </c>
       <c r="Q73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4935,7 +4938,7 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F74">
         <v>176</v>
@@ -4956,7 +4959,7 @@
         <v>37.2881355932203</v>
       </c>
       <c r="L74">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="M74">
         <v>721.78</v>
@@ -4971,19 +4974,19 @@
         <v>5525095</v>
       </c>
       <c r="Q74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5000,7 +5003,7 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F75">
         <v>176</v>
@@ -5021,7 +5024,7 @@
         <v>37.2881355932203</v>
       </c>
       <c r="L75">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="M75">
         <v>721.78</v>
@@ -5036,19 +5039,19 @@
         <v>5525095</v>
       </c>
       <c r="Q75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5065,7 +5068,7 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F76">
         <v>176</v>
@@ -5086,7 +5089,7 @@
         <v>37.2881355932203</v>
       </c>
       <c r="L76">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="M76">
         <v>721.78</v>
@@ -5101,19 +5104,19 @@
         <v>5525095</v>
       </c>
       <c r="Q76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5130,13 +5133,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F77">
-        <v>0.00301</v>
+        <v>0.00299</v>
       </c>
       <c r="G77">
-        <v>0.005855034920745</v>
+        <v>0.0058477222304812</v>
       </c>
       <c r="H77">
         <v>0.0401337195550442</v>
@@ -5145,7 +5148,7 @@
         <v>0.0176</v>
       </c>
       <c r="L77">
-        <v>0.00236</v>
+        <v>0.00263</v>
       </c>
       <c r="M77">
         <v>0.00979</v>
@@ -5160,19 +5163,19 @@
         <v>5525095</v>
       </c>
       <c r="Q77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5189,13 +5192,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F78">
-        <v>0.00301</v>
+        <v>0.00299</v>
       </c>
       <c r="G78">
-        <v>0.005855034920745</v>
+        <v>0.0058477222304812</v>
       </c>
       <c r="H78">
         <v>0.0401337195550442</v>
@@ -5204,7 +5207,7 @@
         <v>0.0176</v>
       </c>
       <c r="L78">
-        <v>0.00236</v>
+        <v>0.00263</v>
       </c>
       <c r="M78">
         <v>0.00979</v>
@@ -5219,19 +5222,19 @@
         <v>5525095</v>
       </c>
       <c r="Q78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5248,7 +5251,7 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F79">
         <v>0.6870000000000001</v>
@@ -5263,7 +5266,7 @@
         <v>1.13</v>
       </c>
       <c r="L79">
-        <v>0.42255</v>
+        <v>0.4695</v>
       </c>
       <c r="M79">
         <v>0.97296</v>
@@ -5278,19 +5281,19 @@
         <v>5525095</v>
       </c>
       <c r="Q79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5307,7 +5310,7 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F80">
         <v>0.6870000000000001</v>
@@ -5322,7 +5325,7 @@
         <v>1.13</v>
       </c>
       <c r="L80">
-        <v>0.42255</v>
+        <v>0.4695</v>
       </c>
       <c r="M80">
         <v>0.97296</v>
@@ -5337,19 +5340,19 @@
         <v>5525095</v>
       </c>
       <c r="Q80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5363,7 +5366,7 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F81">
         <v>0.695</v>
@@ -5378,7 +5381,7 @@
         <v>1.135</v>
       </c>
       <c r="L81">
-        <v>0.42925</v>
+        <v>0.4875</v>
       </c>
       <c r="M81">
         <v>0.99304</v>
@@ -5393,19 +5396,19 @@
         <v>5525095</v>
       </c>
       <c r="Q81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5419,7 +5422,7 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F82">
         <v>0.695</v>
@@ -5434,7 +5437,7 @@
         <v>1.135</v>
       </c>
       <c r="L82">
-        <v>0.42925</v>
+        <v>0.4875</v>
       </c>
       <c r="M82">
         <v>0.99304</v>
@@ -5449,19 +5452,19 @@
         <v>5525095</v>
       </c>
       <c r="Q82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5475,7 +5478,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F83">
         <v>0.959</v>
@@ -5490,7 +5493,7 @@
         <v>1.3155</v>
       </c>
       <c r="L83">
-        <v>0.6505</v>
+        <v>0.715</v>
       </c>
       <c r="M83">
         <v>1.22</v>
@@ -5505,19 +5508,19 @@
         <v>5525095</v>
       </c>
       <c r="Q83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5531,7 +5534,7 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F84">
         <v>0.959</v>
@@ -5546,7 +5549,7 @@
         <v>1.3155</v>
       </c>
       <c r="L84">
-        <v>0.6505</v>
+        <v>0.715</v>
       </c>
       <c r="M84">
         <v>1.22</v>
@@ -5561,19 +5564,19 @@
         <v>5525095</v>
       </c>
       <c r="Q84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5587,7 +5590,7 @@
         <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F85">
         <v>0.025</v>
@@ -5602,7 +5605,7 @@
         <v>0.1384</v>
       </c>
       <c r="L85">
-        <v>0.0235</v>
+        <v>0.024</v>
       </c>
       <c r="M85">
         <v>0.04941</v>
@@ -5617,19 +5620,19 @@
         <v>5525095</v>
       </c>
       <c r="Q85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5643,7 +5646,7 @@
         <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F86">
         <v>0.025</v>
@@ -5658,7 +5661,7 @@
         <v>0.1384</v>
       </c>
       <c r="L86">
-        <v>0.0235</v>
+        <v>0.024</v>
       </c>
       <c r="M86">
         <v>0.04941</v>
@@ -5673,19 +5676,19 @@
         <v>5525095</v>
       </c>
       <c r="Q86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5702,28 +5705,28 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F87">
         <v>1.2</v>
       </c>
       <c r="G87">
-        <v>1.3902858326922</v>
+        <v>1.46091754131765</v>
       </c>
       <c r="H87">
-        <v>5.2</v>
+        <v>5.33308399137307</v>
       </c>
       <c r="I87">
-        <v>3.623</v>
+        <v>3.884</v>
       </c>
       <c r="L87">
         <v>1.52</v>
       </c>
       <c r="M87">
-        <v>2.0337</v>
+        <v>2.247</v>
       </c>
       <c r="N87">
-        <v>2.782</v>
+        <v>3.3988</v>
       </c>
       <c r="O87">
         <v>1845196</v>
@@ -5732,19 +5735,19 @@
         <v>5525095</v>
       </c>
       <c r="Q87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5761,13 +5764,13 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F88">
         <v>0.008500000000000001</v>
       </c>
       <c r="G88">
-        <v>0.0093050717523396</v>
+        <v>0.0092941918391571</v>
       </c>
       <c r="H88">
         <v>0.031</v>
@@ -5776,7 +5779,7 @@
         <v>0.0186</v>
       </c>
       <c r="L88">
-        <v>0.006</v>
+        <v>0.0065</v>
       </c>
       <c r="M88">
         <v>0.013</v>
@@ -5791,19 +5794,19 @@
         <v>5525095</v>
       </c>
       <c r="Q88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5820,13 +5823,13 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F89">
         <v>0.008500000000000001</v>
       </c>
       <c r="G89">
-        <v>0.0093050717523396</v>
+        <v>0.0092941918391571</v>
       </c>
       <c r="H89">
         <v>0.031</v>
@@ -5835,7 +5838,7 @@
         <v>0.0186</v>
       </c>
       <c r="L89">
-        <v>0.006</v>
+        <v>0.0065</v>
       </c>
       <c r="M89">
         <v>0.013</v>
@@ -5850,19 +5853,19 @@
         <v>5525095</v>
       </c>
       <c r="Q89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5879,7 +5882,7 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F90">
         <v>161</v>
@@ -5900,7 +5903,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L90">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="M90">
         <v>614.8</v>
@@ -5915,19 +5918,19 @@
         <v>5525095</v>
       </c>
       <c r="Q90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5944,7 +5947,7 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F91">
         <v>161</v>
@@ -5965,7 +5968,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L91">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="M91">
         <v>614.8</v>
@@ -5980,19 +5983,19 @@
         <v>5525095</v>
       </c>
       <c r="Q91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6009,7 +6012,7 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F92">
         <v>161</v>
@@ -6030,7 +6033,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L92">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="M92">
         <v>614.8</v>
@@ -6045,19 +6048,19 @@
         <v>5525095</v>
       </c>
       <c r="Q92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6074,7 +6077,7 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F93">
         <v>161</v>
@@ -6095,7 +6098,7 @@
         <v>34.4827586206897</v>
       </c>
       <c r="L93">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="M93">
         <v>614.8</v>
@@ -6110,19 +6113,19 @@
         <v>5525095</v>
       </c>
       <c r="Q93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6139,13 +6142,13 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F94">
-        <v>0.00349</v>
+        <v>0.00348</v>
       </c>
       <c r="G94">
-        <v>0.0058250395613937</v>
+        <v>0.0058041328149197</v>
       </c>
       <c r="H94">
         <v>0.0401337195550442</v>
@@ -6154,13 +6157,13 @@
         <v>0.0156</v>
       </c>
       <c r="L94">
-        <v>0.0038</v>
+        <v>0.0034</v>
       </c>
       <c r="M94">
         <v>0.00979</v>
       </c>
       <c r="N94">
-        <v>0.01337</v>
+        <v>0.01324</v>
       </c>
       <c r="O94">
         <v>1845196</v>
@@ -6169,19 +6172,19 @@
         <v>5525095</v>
       </c>
       <c r="Q94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U94" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6198,13 +6201,13 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F95">
-        <v>0.00349</v>
+        <v>0.00348</v>
       </c>
       <c r="G95">
-        <v>0.0058250395613937</v>
+        <v>0.0058041328149197</v>
       </c>
       <c r="H95">
         <v>0.0401337195550442</v>
@@ -6213,13 +6216,13 @@
         <v>0.0156</v>
       </c>
       <c r="L95">
-        <v>0.0038</v>
+        <v>0.0034</v>
       </c>
       <c r="M95">
         <v>0.00979</v>
       </c>
       <c r="N95">
-        <v>0.01337</v>
+        <v>0.01324</v>
       </c>
       <c r="O95">
         <v>1845196</v>
@@ -6228,19 +6231,19 @@
         <v>5525095</v>
       </c>
       <c r="Q95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6257,7 +6260,7 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F96">
         <v>0.6885</v>
@@ -6272,7 +6275,7 @@
         <v>1.13</v>
       </c>
       <c r="L96">
-        <v>0.437</v>
+        <v>0.4695</v>
       </c>
       <c r="M96">
         <v>0.97112</v>
@@ -6287,19 +6290,19 @@
         <v>5525095</v>
       </c>
       <c r="Q96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6316,7 +6319,7 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F97">
         <v>0.6885</v>
@@ -6331,7 +6334,7 @@
         <v>1.13</v>
       </c>
       <c r="L97">
-        <v>0.437</v>
+        <v>0.4695</v>
       </c>
       <c r="M97">
         <v>0.97112</v>
@@ -6346,19 +6349,19 @@
         <v>5525095</v>
       </c>
       <c r="Q97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6372,7 +6375,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F98">
         <v>0.7</v>
@@ -6387,7 +6390,7 @@
         <v>1.135</v>
       </c>
       <c r="L98">
-        <v>0.4475</v>
+        <v>0.4875</v>
       </c>
       <c r="M98">
         <v>0.985</v>
@@ -6402,19 +6405,19 @@
         <v>5525095</v>
       </c>
       <c r="Q98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U98" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6428,7 +6431,7 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F99">
         <v>0.7</v>
@@ -6443,7 +6446,7 @@
         <v>1.135</v>
       </c>
       <c r="L99">
-        <v>0.4475</v>
+        <v>0.4875</v>
       </c>
       <c r="M99">
         <v>0.985</v>
@@ -6458,19 +6461,19 @@
         <v>5525095</v>
       </c>
       <c r="Q99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U99" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6484,7 +6487,7 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F100">
         <v>0.9695</v>
@@ -6499,7 +6502,7 @@
         <v>1.316</v>
       </c>
       <c r="L100">
-        <v>0.665</v>
+        <v>0.695</v>
       </c>
       <c r="M100">
         <v>1.192</v>
@@ -6514,19 +6517,19 @@
         <v>5525095</v>
       </c>
       <c r="Q100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6540,7 +6543,7 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F101">
         <v>0.9695</v>
@@ -6555,7 +6558,7 @@
         <v>1.316</v>
       </c>
       <c r="L101">
-        <v>0.665</v>
+        <v>0.695</v>
       </c>
       <c r="M101">
         <v>1.192</v>
@@ -6570,19 +6573,19 @@
         <v>5525095</v>
       </c>
       <c r="Q101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U101" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6596,7 +6599,7 @@
         <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F102">
         <v>0.025</v>
@@ -6611,7 +6614,7 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="L102">
-        <v>0.0205</v>
+        <v>0.0235</v>
       </c>
       <c r="M102">
         <v>0.04656</v>
@@ -6626,19 +6629,19 @@
         <v>5525095</v>
       </c>
       <c r="Q102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U102" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6652,7 +6655,7 @@
         <v>49</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F103">
         <v>0.025</v>
@@ -6667,7 +6670,7 @@
         <v>0.07779999999999999</v>
       </c>
       <c r="L103">
-        <v>0.0205</v>
+        <v>0.0235</v>
       </c>
       <c r="M103">
         <v>0.04656</v>
@@ -6682,19 +6685,19 @@
         <v>5525095</v>
       </c>
       <c r="Q103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U103" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6711,28 +6714,28 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F104">
         <v>1.1</v>
       </c>
       <c r="G104">
-        <v>1.27234998229972</v>
+        <v>1.34874754469052</v>
       </c>
       <c r="H104">
-        <v>5.2</v>
+        <v>5.33308399137307</v>
       </c>
       <c r="I104">
-        <v>3.692</v>
+        <v>3.984</v>
       </c>
       <c r="L104">
-        <v>1.415</v>
+        <v>1.5</v>
       </c>
       <c r="M104">
-        <v>1.8836</v>
+        <v>1.9534</v>
       </c>
       <c r="N104">
-        <v>3.006</v>
+        <v>3.5204</v>
       </c>
       <c r="O104">
         <v>1845196</v>
@@ -6741,19 +6744,19 @@
         <v>5525095</v>
       </c>
       <c r="Q104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6770,13 +6773,13 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F105">
         <v>0.008500000000000001</v>
       </c>
       <c r="G105">
-        <v>0.009054743185736</v>
+        <v>0.0090459653299524</v>
       </c>
       <c r="H105">
         <v>0.031</v>
@@ -6785,7 +6788,7 @@
         <v>0.0184</v>
       </c>
       <c r="L105">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="M105">
         <v>0.013</v>
@@ -6800,19 +6803,19 @@
         <v>5525095</v>
       </c>
       <c r="Q105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6829,13 +6832,13 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F106">
         <v>0.008500000000000001</v>
       </c>
       <c r="G106">
-        <v>0.009054743185736</v>
+        <v>0.0090459653299524</v>
       </c>
       <c r="H106">
         <v>0.031</v>
@@ -6844,7 +6847,7 @@
         <v>0.0184</v>
       </c>
       <c r="L106">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="M106">
         <v>0.013</v>
@@ -6859,19 +6862,19 @@
         <v>5525095</v>
       </c>
       <c r="Q106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6888,7 +6891,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F107">
         <v>170</v>
@@ -6909,7 +6912,7 @@
         <v>37.5</v>
       </c>
       <c r="L107">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="M107">
         <v>767.4</v>
@@ -6924,19 +6927,19 @@
         <v>5525095</v>
       </c>
       <c r="Q107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6953,7 +6956,7 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F108">
         <v>170</v>
@@ -6974,7 +6977,7 @@
         <v>37.5</v>
       </c>
       <c r="L108">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="M108">
         <v>767.4</v>
@@ -6989,19 +6992,19 @@
         <v>5525095</v>
       </c>
       <c r="Q108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7018,7 +7021,7 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F109">
         <v>170</v>
@@ -7039,7 +7042,7 @@
         <v>37.5</v>
       </c>
       <c r="L109">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="M109">
         <v>767.4</v>
@@ -7054,19 +7057,19 @@
         <v>5525095</v>
       </c>
       <c r="Q109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7083,7 +7086,7 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F110">
         <v>170</v>
@@ -7104,7 +7107,7 @@
         <v>37.5</v>
       </c>
       <c r="L110">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="M110">
         <v>767.4</v>
@@ -7119,19 +7122,19 @@
         <v>5525095</v>
       </c>
       <c r="Q110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7148,13 +7151,13 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F111">
-        <v>0.00603</v>
+        <v>0.006</v>
       </c>
       <c r="G111">
-        <v>0.0071678054184639</v>
+        <v>0.0071442560559308</v>
       </c>
       <c r="H111">
         <v>0.0401337195550442</v>
@@ -7163,7 +7166,7 @@
         <v>0.01729</v>
       </c>
       <c r="L111">
-        <v>0.007889999999999999</v>
+        <v>0.0062</v>
       </c>
       <c r="M111">
         <v>0.01052</v>
@@ -7178,19 +7181,19 @@
         <v>5525095</v>
       </c>
       <c r="Q111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7207,13 +7210,13 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F112">
-        <v>0.00603</v>
+        <v>0.006</v>
       </c>
       <c r="G112">
-        <v>0.0071678054184639</v>
+        <v>0.0071442560559308</v>
       </c>
       <c r="H112">
         <v>0.0401337195550442</v>
@@ -7222,7 +7225,7 @@
         <v>0.01729</v>
       </c>
       <c r="L112">
-        <v>0.007889999999999999</v>
+        <v>0.0062</v>
       </c>
       <c r="M112">
         <v>0.01052</v>
@@ -7237,19 +7240,19 @@
         <v>5525095</v>
       </c>
       <c r="Q112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U112" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7266,7 +7269,7 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F113">
         <v>0.59</v>
@@ -7281,7 +7284,7 @@
         <v>1.13</v>
       </c>
       <c r="L113">
-        <v>0.437</v>
+        <v>0.446</v>
       </c>
       <c r="M113">
         <v>0.97376</v>
@@ -7296,19 +7299,19 @@
         <v>5525095</v>
       </c>
       <c r="Q113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7325,7 +7328,7 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F114">
         <v>0.59</v>
@@ -7340,7 +7343,7 @@
         <v>1.13</v>
       </c>
       <c r="L114">
-        <v>0.437</v>
+        <v>0.446</v>
       </c>
       <c r="M114">
         <v>0.97376</v>
@@ -7355,19 +7358,19 @@
         <v>5525095</v>
       </c>
       <c r="Q114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7381,7 +7384,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F115">
         <v>0.6115</v>
@@ -7396,7 +7399,7 @@
         <v>1.135</v>
       </c>
       <c r="L115">
-        <v>0.449</v>
+        <v>0.465</v>
       </c>
       <c r="M115">
         <v>0.9848</v>
@@ -7411,19 +7414,19 @@
         <v>5525095</v>
       </c>
       <c r="Q115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7437,7 +7440,7 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F116">
         <v>0.6115</v>
@@ -7452,7 +7455,7 @@
         <v>1.135</v>
       </c>
       <c r="L116">
-        <v>0.449</v>
+        <v>0.465</v>
       </c>
       <c r="M116">
         <v>0.9848</v>
@@ -7467,19 +7470,19 @@
         <v>5525095</v>
       </c>
       <c r="Q116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U116" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7493,7 +7496,7 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F117">
         <v>0.85</v>
@@ -7508,7 +7511,7 @@
         <v>1.341</v>
       </c>
       <c r="L117">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="M117">
         <v>1.2198</v>
@@ -7523,19 +7526,19 @@
         <v>5525095</v>
       </c>
       <c r="Q117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U117" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7549,7 +7552,7 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F118">
         <v>0.85</v>
@@ -7564,7 +7567,7 @@
         <v>1.341</v>
       </c>
       <c r="L118">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="M118">
         <v>1.2198</v>
@@ -7579,19 +7582,19 @@
         <v>5525095</v>
       </c>
       <c r="Q118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U118" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7605,7 +7608,7 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F119">
         <v>0.0255</v>
@@ -7620,7 +7623,7 @@
         <v>0.0929</v>
       </c>
       <c r="L119">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="M119">
         <v>0.04792</v>
@@ -7635,19 +7638,19 @@
         <v>5525095</v>
       </c>
       <c r="Q119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U119" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7661,7 +7664,7 @@
         <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F120">
         <v>0.0255</v>
@@ -7676,7 +7679,7 @@
         <v>0.0929</v>
       </c>
       <c r="L120">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="M120">
         <v>0.04792</v>
@@ -7691,19 +7694,19 @@
         <v>5525095</v>
       </c>
       <c r="Q120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U120" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7720,19 +7723,19 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F121">
         <v>0.864</v>
       </c>
       <c r="G121">
-        <v>0.892696131607344</v>
+        <v>0.988682812559886</v>
       </c>
       <c r="H121">
-        <v>2.6</v>
+        <v>5.33308399137307</v>
       </c>
       <c r="I121">
-        <v>1.925</v>
+        <v>2.3165</v>
       </c>
       <c r="L121">
         <v>1.2</v>
@@ -7741,7 +7744,7 @@
         <v>1.5461</v>
       </c>
       <c r="N121">
-        <v>1.8638</v>
+        <v>1.908</v>
       </c>
       <c r="O121">
         <v>1845196</v>
@@ -7750,19 +7753,19 @@
         <v>5525095</v>
       </c>
       <c r="Q121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7779,13 +7782,13 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F122">
         <v>0.008</v>
       </c>
       <c r="G122">
-        <v>0.008268335402038101</v>
+        <v>0.0082628162561639</v>
       </c>
       <c r="H122">
         <v>0.021</v>
@@ -7794,7 +7797,7 @@
         <v>0.0164</v>
       </c>
       <c r="L122">
-        <v>0.0055</v>
+        <v>0.006</v>
       </c>
       <c r="M122">
         <v>0.011</v>
@@ -7809,19 +7812,19 @@
         <v>5525095</v>
       </c>
       <c r="Q122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7838,13 +7841,13 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F123">
         <v>0.008</v>
       </c>
       <c r="G123">
-        <v>0.008268335402038101</v>
+        <v>0.0082628162561639</v>
       </c>
       <c r="H123">
         <v>0.021</v>
@@ -7853,7 +7856,7 @@
         <v>0.0164</v>
       </c>
       <c r="L123">
-        <v>0.0055</v>
+        <v>0.006</v>
       </c>
       <c r="M123">
         <v>0.011</v>
@@ -7868,19 +7871,19 @@
         <v>5525095</v>
       </c>
       <c r="Q123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7897,7 +7900,7 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F124">
         <v>185</v>
@@ -7918,7 +7921,7 @@
         <v>42.8571428571429</v>
       </c>
       <c r="L124">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M124">
         <v>1292.8</v>
@@ -7933,19 +7936,19 @@
         <v>5525095</v>
       </c>
       <c r="Q124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7962,7 +7965,7 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F125">
         <v>185</v>
@@ -7983,7 +7986,7 @@
         <v>42.8571428571429</v>
       </c>
       <c r="L125">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M125">
         <v>1292.8</v>
@@ -7998,19 +8001,19 @@
         <v>5525095</v>
       </c>
       <c r="Q125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8027,7 +8030,7 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F126">
         <v>185</v>
@@ -8048,7 +8051,7 @@
         <v>42.8571428571429</v>
       </c>
       <c r="L126">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M126">
         <v>1292.8</v>
@@ -8063,19 +8066,19 @@
         <v>5525095</v>
       </c>
       <c r="Q126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8092,7 +8095,7 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F127">
         <v>185</v>
@@ -8113,7 +8116,7 @@
         <v>42.8571428571429</v>
       </c>
       <c r="L127">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M127">
         <v>1292.8</v>
@@ -8128,19 +8131,19 @@
         <v>5525095</v>
       </c>
       <c r="Q127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U127" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8157,13 +8160,13 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F128">
-        <v>0.00645</v>
+        <v>0.00636</v>
       </c>
       <c r="G128">
-        <v>0.008262725256161301</v>
+        <v>0.008239689059248099</v>
       </c>
       <c r="H128">
         <v>0.0401337195550442</v>
@@ -8172,7 +8175,7 @@
         <v>0.02344</v>
       </c>
       <c r="L128">
-        <v>0.007889999999999999</v>
+        <v>0.00691</v>
       </c>
       <c r="M128">
         <v>0.01141</v>
@@ -8187,19 +8190,19 @@
         <v>5525095</v>
       </c>
       <c r="Q128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U128" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8216,13 +8219,13 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F129">
-        <v>0.00645</v>
+        <v>0.00636</v>
       </c>
       <c r="G129">
-        <v>0.008262725256161301</v>
+        <v>0.008239689059248099</v>
       </c>
       <c r="H129">
         <v>0.0401337195550442</v>
@@ -8231,7 +8234,7 @@
         <v>0.02344</v>
       </c>
       <c r="L129">
-        <v>0.007889999999999999</v>
+        <v>0.00691</v>
       </c>
       <c r="M129">
         <v>0.01141</v>
@@ -8246,19 +8249,19 @@
         <v>5525095</v>
       </c>
       <c r="Q129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U129" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8275,7 +8278,7 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F130">
         <v>0.59</v>
@@ -8290,7 +8293,7 @@
         <v>1.067</v>
       </c>
       <c r="L130">
-        <v>0.466</v>
+        <v>0.479</v>
       </c>
       <c r="M130">
         <v>0.87488</v>
@@ -8305,19 +8308,19 @@
         <v>5525095</v>
       </c>
       <c r="Q130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U130" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8334,7 +8337,7 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F131">
         <v>0.59</v>
@@ -8349,7 +8352,7 @@
         <v>1.067</v>
       </c>
       <c r="L131">
-        <v>0.466</v>
+        <v>0.479</v>
       </c>
       <c r="M131">
         <v>0.87488</v>
@@ -8364,19 +8367,19 @@
         <v>5525095</v>
       </c>
       <c r="Q131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U131" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8390,7 +8393,7 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F132">
         <v>0.6115</v>
@@ -8405,7 +8408,7 @@
         <v>1.0885</v>
       </c>
       <c r="L132">
-        <v>0.476</v>
+        <v>0.486</v>
       </c>
       <c r="M132">
         <v>0.88196</v>
@@ -8420,19 +8423,19 @@
         <v>5525095</v>
       </c>
       <c r="Q132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U132" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8446,7 +8449,7 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F133">
         <v>0.6115</v>
@@ -8461,7 +8464,7 @@
         <v>1.0885</v>
       </c>
       <c r="L133">
-        <v>0.476</v>
+        <v>0.486</v>
       </c>
       <c r="M133">
         <v>0.88196</v>
@@ -8476,19 +8479,19 @@
         <v>5525095</v>
       </c>
       <c r="Q133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8502,7 +8505,7 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F134">
         <v>0.83</v>
@@ -8517,7 +8520,7 @@
         <v>1.311</v>
       </c>
       <c r="L134">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="M134">
         <v>1.1592</v>
@@ -8532,19 +8535,19 @@
         <v>5525095</v>
       </c>
       <c r="Q134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8558,7 +8561,7 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F135">
         <v>0.83</v>
@@ -8573,7 +8576,7 @@
         <v>1.311</v>
       </c>
       <c r="L135">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="M135">
         <v>1.1592</v>
@@ -8588,19 +8591,19 @@
         <v>5525095</v>
       </c>
       <c r="Q135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U135" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8614,7 +8617,7 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F136">
         <v>0.0255</v>
@@ -8629,7 +8632,7 @@
         <v>0.0929</v>
       </c>
       <c r="L136">
-        <v>0.0195</v>
+        <v>0.021</v>
       </c>
       <c r="M136">
         <v>0.04792</v>
@@ -8644,19 +8647,19 @@
         <v>5525095</v>
       </c>
       <c r="Q136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8670,7 +8673,7 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F137">
         <v>0.0255</v>
@@ -8685,7 +8688,7 @@
         <v>0.0929</v>
       </c>
       <c r="L137">
-        <v>0.0195</v>
+        <v>0.021</v>
       </c>
       <c r="M137">
         <v>0.04792</v>
@@ -8700,19 +8703,19 @@
         <v>5525095</v>
       </c>
       <c r="Q137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U137" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8729,13 +8732,13 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F138">
         <v>0.007</v>
       </c>
       <c r="G138">
-        <v>0.008176995735571201</v>
+        <v>0.0081709354969642</v>
       </c>
       <c r="H138">
         <v>0.021</v>
@@ -8744,7 +8747,7 @@
         <v>0.0189</v>
       </c>
       <c r="L138">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="M138">
         <v>0.01183</v>
@@ -8759,19 +8762,19 @@
         <v>5525095</v>
       </c>
       <c r="Q138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8788,13 +8791,13 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F139">
         <v>0.007</v>
       </c>
       <c r="G139">
-        <v>0.008176995735571201</v>
+        <v>0.0081709354969642</v>
       </c>
       <c r="H139">
         <v>0.021</v>
@@ -8803,7 +8806,7 @@
         <v>0.0189</v>
       </c>
       <c r="L139">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="M139">
         <v>0.01183</v>
@@ -8818,19 +8821,19 @@
         <v>5525095</v>
       </c>
       <c r="Q139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U139" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8847,13 +8850,13 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F140">
         <v>170</v>
       </c>
       <c r="G140">
-        <v>586.463244705456</v>
+        <v>586.459876348865</v>
       </c>
       <c r="H140">
         <v>6200</v>
@@ -8883,19 +8886,19 @@
         <v>5525095</v>
       </c>
       <c r="Q140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8912,13 +8915,13 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F141">
         <v>170</v>
       </c>
       <c r="G141">
-        <v>586.463244705456</v>
+        <v>586.459876348865</v>
       </c>
       <c r="H141">
         <v>6200</v>
@@ -8948,19 +8951,19 @@
         <v>5525095</v>
       </c>
       <c r="Q141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U141" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8977,13 +8980,13 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F142">
         <v>170</v>
       </c>
       <c r="G142">
-        <v>586.463244705456</v>
+        <v>586.459876348865</v>
       </c>
       <c r="H142">
         <v>6200</v>
@@ -9013,19 +9016,19 @@
         <v>5525095</v>
       </c>
       <c r="Q142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9042,13 +9045,13 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F143">
         <v>170</v>
       </c>
       <c r="G143">
-        <v>586.463244705456</v>
+        <v>586.459876348865</v>
       </c>
       <c r="H143">
         <v>6200</v>
@@ -9078,19 +9081,19 @@
         <v>5525095</v>
       </c>
       <c r="Q143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U143" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9107,13 +9110,13 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F144">
-        <v>0.00764</v>
+        <v>0.00753</v>
       </c>
       <c r="G144">
-        <v>0.0089186653357449</v>
+        <v>0.0088962458294007</v>
       </c>
       <c r="H144">
         <v>0.0329027150070411</v>
@@ -9122,10 +9125,10 @@
         <v>0.01859</v>
       </c>
       <c r="L144">
-        <v>0.00903</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="M144">
-        <v>0.01309</v>
+        <v>0.01299</v>
       </c>
       <c r="N144">
         <v>0.01721</v>
@@ -9137,19 +9140,19 @@
         <v>5525095</v>
       </c>
       <c r="Q144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U144" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9166,13 +9169,13 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F145">
-        <v>0.00764</v>
+        <v>0.00753</v>
       </c>
       <c r="G145">
-        <v>0.0089186653357449</v>
+        <v>0.0088962458294007</v>
       </c>
       <c r="H145">
         <v>0.0329027150070411</v>
@@ -9181,10 +9184,10 @@
         <v>0.01859</v>
       </c>
       <c r="L145">
-        <v>0.00903</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="M145">
-        <v>0.01309</v>
+        <v>0.01299</v>
       </c>
       <c r="N145">
         <v>0.01721</v>
@@ -9196,19 +9199,19 @@
         <v>5525095</v>
       </c>
       <c r="Q145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U145" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9225,7 +9228,7 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F146">
         <v>0.593</v>
@@ -9240,7 +9243,7 @@
         <v>1.0095</v>
       </c>
       <c r="L146">
-        <v>0.492</v>
+        <v>0.502</v>
       </c>
       <c r="M146">
         <v>0.8673</v>
@@ -9255,19 +9258,19 @@
         <v>5525095</v>
       </c>
       <c r="Q146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U146" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9284,7 +9287,7 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F147">
         <v>0.593</v>
@@ -9299,7 +9302,7 @@
         <v>1.0095</v>
       </c>
       <c r="L147">
-        <v>0.492</v>
+        <v>0.502</v>
       </c>
       <c r="M147">
         <v>0.8673</v>
@@ -9314,19 +9317,19 @@
         <v>5525095</v>
       </c>
       <c r="Q147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U147" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9340,7 +9343,7 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F148">
         <v>0.613</v>
@@ -9355,7 +9358,7 @@
         <v>1.0397</v>
       </c>
       <c r="L148">
-        <v>0.51025</v>
+        <v>0.5105</v>
       </c>
       <c r="M148">
         <v>0.88</v>
@@ -9370,19 +9373,19 @@
         <v>5525095</v>
       </c>
       <c r="Q148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U148" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9396,7 +9399,7 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F149">
         <v>0.613</v>
@@ -9411,7 +9414,7 @@
         <v>1.0397</v>
       </c>
       <c r="L149">
-        <v>0.51025</v>
+        <v>0.5105</v>
       </c>
       <c r="M149">
         <v>0.88</v>
@@ -9426,19 +9429,19 @@
         <v>5525095</v>
       </c>
       <c r="Q149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9452,7 +9455,7 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F150">
         <v>0.82</v>
@@ -9467,7 +9470,7 @@
         <v>1.2885</v>
       </c>
       <c r="L150">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="M150">
         <v>1.0866</v>
@@ -9482,19 +9485,19 @@
         <v>5525095</v>
       </c>
       <c r="Q150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U150" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9508,7 +9511,7 @@
         <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F151">
         <v>0.82</v>
@@ -9523,7 +9526,7 @@
         <v>1.2885</v>
       </c>
       <c r="L151">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="M151">
         <v>1.0866</v>
@@ -9538,19 +9541,19 @@
         <v>5525095</v>
       </c>
       <c r="Q151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U151" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9564,7 +9567,7 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F152">
         <v>0.023</v>
@@ -9579,7 +9582,7 @@
         <v>0.09715</v>
       </c>
       <c r="L152">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="M152">
         <v>0.04815</v>
@@ -9594,19 +9597,19 @@
         <v>5525095</v>
       </c>
       <c r="Q152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U152" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9620,7 +9623,7 @@
         <v>52</v>
       </c>
       <c r="E153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F153">
         <v>0.023</v>
@@ -9635,7 +9638,7 @@
         <v>0.09715</v>
       </c>
       <c r="L153">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="M153">
         <v>0.04815</v>
@@ -9650,19 +9653,19 @@
         <v>5525095</v>
       </c>
       <c r="Q153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U153" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9679,13 +9682,13 @@
         <v>53</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F154">
         <v>0.0065</v>
       </c>
       <c r="G154">
-        <v>0.0074106282381184</v>
+        <v>0.0074088706937239</v>
       </c>
       <c r="H154">
         <v>0.019</v>
@@ -9694,7 +9697,7 @@
         <v>0.0141</v>
       </c>
       <c r="L154">
-        <v>0.005</v>
+        <v>0.0055</v>
       </c>
       <c r="M154">
         <v>0.011</v>
@@ -9709,19 +9712,19 @@
         <v>5525095</v>
       </c>
       <c r="Q154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U154" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9738,13 +9741,13 @@
         <v>53</v>
       </c>
       <c r="E155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F155">
         <v>0.0065</v>
       </c>
       <c r="G155">
-        <v>0.0074106282381184</v>
+        <v>0.0074088706937239</v>
       </c>
       <c r="H155">
         <v>0.019</v>
@@ -9753,7 +9756,7 @@
         <v>0.0141</v>
       </c>
       <c r="L155">
-        <v>0.005</v>
+        <v>0.0055</v>
       </c>
       <c r="M155">
         <v>0.011</v>
@@ -9768,19 +9771,19 @@
         <v>5525095</v>
       </c>
       <c r="Q155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U155" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9797,13 +9800,13 @@
         <v>53</v>
       </c>
       <c r="E156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F156">
         <v>135</v>
       </c>
       <c r="G156">
-        <v>338.51303083288</v>
+        <v>338.526118620669</v>
       </c>
       <c r="H156">
         <v>2200</v>
@@ -9818,7 +9821,7 @@
         <v>31.25</v>
       </c>
       <c r="L156">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M156">
         <v>708.36</v>
@@ -9833,19 +9836,19 @@
         <v>5525095</v>
       </c>
       <c r="Q156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U156" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9862,13 +9865,13 @@
         <v>53</v>
       </c>
       <c r="E157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F157">
         <v>135</v>
       </c>
       <c r="G157">
-        <v>338.51303083288</v>
+        <v>338.526118620669</v>
       </c>
       <c r="H157">
         <v>2200</v>
@@ -9883,7 +9886,7 @@
         <v>31.25</v>
       </c>
       <c r="L157">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M157">
         <v>708.36</v>
@@ -9898,19 +9901,19 @@
         <v>5525095</v>
       </c>
       <c r="Q157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U157" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9927,13 +9930,13 @@
         <v>53</v>
       </c>
       <c r="E158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F158">
         <v>135</v>
       </c>
       <c r="G158">
-        <v>338.51303083288</v>
+        <v>338.526118620669</v>
       </c>
       <c r="H158">
         <v>2200</v>
@@ -9948,7 +9951,7 @@
         <v>31.25</v>
       </c>
       <c r="L158">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M158">
         <v>708.36</v>
@@ -9963,19 +9966,19 @@
         <v>5525095</v>
       </c>
       <c r="Q158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U158" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9992,13 +9995,13 @@
         <v>53</v>
       </c>
       <c r="E159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F159">
         <v>135</v>
       </c>
       <c r="G159">
-        <v>338.51303083288</v>
+        <v>338.526118620669</v>
       </c>
       <c r="H159">
         <v>2200</v>
@@ -10013,7 +10016,7 @@
         <v>31.25</v>
       </c>
       <c r="L159">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M159">
         <v>708.36</v>
@@ -10028,19 +10031,19 @@
         <v>5525095</v>
       </c>
       <c r="Q159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U159" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10057,13 +10060,13 @@
         <v>53</v>
       </c>
       <c r="E160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F160">
-        <v>0.007889999999999999</v>
+        <v>0.00778</v>
       </c>
       <c r="G160">
-        <v>0.009438736902649099</v>
+        <v>0.0094225098699325</v>
       </c>
       <c r="H160">
         <v>0.0329027150070411</v>
@@ -10072,7 +10075,7 @@
         <v>0.02411</v>
       </c>
       <c r="L160">
-        <v>0.009039999999999999</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="M160">
         <v>0.01463</v>
@@ -10087,19 +10090,19 @@
         <v>5525095</v>
       </c>
       <c r="Q160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U160" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10116,13 +10119,13 @@
         <v>53</v>
       </c>
       <c r="E161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F161">
-        <v>0.007889999999999999</v>
+        <v>0.00778</v>
       </c>
       <c r="G161">
-        <v>0.009438736902649099</v>
+        <v>0.0094225098699325</v>
       </c>
       <c r="H161">
         <v>0.0329027150070411</v>
@@ -10131,7 +10134,7 @@
         <v>0.02411</v>
       </c>
       <c r="L161">
-        <v>0.009039999999999999</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="M161">
         <v>0.01463</v>
@@ -10146,19 +10149,19 @@
         <v>5525095</v>
       </c>
       <c r="Q161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U161" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10175,7 +10178,7 @@
         <v>53</v>
       </c>
       <c r="E162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F162">
         <v>0.631</v>
@@ -10190,7 +10193,7 @@
         <v>1.015</v>
       </c>
       <c r="L162">
-        <v>0.504</v>
+        <v>0.5115</v>
       </c>
       <c r="M162">
         <v>0.8801</v>
@@ -10205,19 +10208,19 @@
         <v>5525095</v>
       </c>
       <c r="Q162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U162" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10234,7 +10237,7 @@
         <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F163">
         <v>0.631</v>
@@ -10249,7 +10252,7 @@
         <v>1.015</v>
       </c>
       <c r="L163">
-        <v>0.504</v>
+        <v>0.5115</v>
       </c>
       <c r="M163">
         <v>0.8801</v>
@@ -10264,19 +10267,19 @@
         <v>5525095</v>
       </c>
       <c r="Q163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U163" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10290,7 +10293,7 @@
         <v>53</v>
       </c>
       <c r="E164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F164">
         <v>0.647</v>
@@ -10305,7 +10308,7 @@
         <v>1.0459</v>
       </c>
       <c r="L164">
-        <v>0.515</v>
+        <v>0.534</v>
       </c>
       <c r="M164">
         <v>0.88846</v>
@@ -10320,19 +10323,19 @@
         <v>5525095</v>
       </c>
       <c r="Q164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10346,7 +10349,7 @@
         <v>53</v>
       </c>
       <c r="E165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F165">
         <v>0.647</v>
@@ -10361,7 +10364,7 @@
         <v>1.0459</v>
       </c>
       <c r="L165">
-        <v>0.515</v>
+        <v>0.534</v>
       </c>
       <c r="M165">
         <v>0.88846</v>
@@ -10376,19 +10379,19 @@
         <v>5525095</v>
       </c>
       <c r="Q165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U165" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10402,7 +10405,7 @@
         <v>53</v>
       </c>
       <c r="E166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F166">
         <v>0.8</v>
@@ -10417,7 +10420,7 @@
         <v>1.269</v>
       </c>
       <c r="L166">
-        <v>0.6899999999999999</v>
+        <v>0.725</v>
       </c>
       <c r="M166">
         <v>1.027</v>
@@ -10432,19 +10435,19 @@
         <v>5525095</v>
       </c>
       <c r="Q166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U166" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10458,7 +10461,7 @@
         <v>53</v>
       </c>
       <c r="E167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F167">
         <v>0.8</v>
@@ -10473,7 +10476,7 @@
         <v>1.269</v>
       </c>
       <c r="L167">
-        <v>0.6899999999999999</v>
+        <v>0.725</v>
       </c>
       <c r="M167">
         <v>1.027</v>
@@ -10488,19 +10491,19 @@
         <v>5525095</v>
       </c>
       <c r="Q167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U167" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10514,7 +10517,7 @@
         <v>53</v>
       </c>
       <c r="E168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F168">
         <v>0.021</v>
@@ -10529,7 +10532,7 @@
         <v>0.065</v>
       </c>
       <c r="L168">
-        <v>0.015</v>
+        <v>0.0155</v>
       </c>
       <c r="M168">
         <v>0.04034</v>
@@ -10544,19 +10547,19 @@
         <v>5525095</v>
       </c>
       <c r="Q168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U168" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10570,7 +10573,7 @@
         <v>53</v>
       </c>
       <c r="E169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F169">
         <v>0.021</v>
@@ -10585,7 +10588,7 @@
         <v>0.065</v>
       </c>
       <c r="L169">
-        <v>0.015</v>
+        <v>0.0155</v>
       </c>
       <c r="M169">
         <v>0.04034</v>
@@ -10600,19 +10603,969 @@
         <v>5525095</v>
       </c>
       <c r="Q169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U169" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" t="s">
+        <v>54</v>
+      </c>
+      <c r="E170" t="s">
+        <v>55</v>
+      </c>
+      <c r="F170">
+        <v>0.006</v>
+      </c>
+      <c r="G170">
+        <v>0.0069375</v>
+      </c>
+      <c r="H170">
+        <v>0.019</v>
+      </c>
+      <c r="I170">
+        <v>0.0141</v>
+      </c>
+      <c r="L170">
+        <v>0.006</v>
+      </c>
+      <c r="M170">
+        <v>0.01034</v>
+      </c>
+      <c r="N170">
+        <v>0.01266</v>
+      </c>
+      <c r="O170">
+        <v>1845196</v>
+      </c>
+      <c r="P170">
+        <v>5525095</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>56</v>
+      </c>
+      <c r="R170" t="s">
+        <v>57</v>
+      </c>
+      <c r="S170" t="s">
+        <v>58</v>
+      </c>
+      <c r="T170" t="s">
+        <v>59</v>
+      </c>
+      <c r="U170" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>24</v>
+      </c>
+      <c r="C171" t="s">
+        <v>40</v>
+      </c>
+      <c r="D171" t="s">
+        <v>54</v>
+      </c>
+      <c r="E171" t="s">
+        <v>55</v>
+      </c>
+      <c r="F171">
+        <v>0.006</v>
+      </c>
+      <c r="G171">
+        <v>0.0069375</v>
+      </c>
+      <c r="H171">
+        <v>0.019</v>
+      </c>
+      <c r="I171">
+        <v>0.0141</v>
+      </c>
+      <c r="L171">
+        <v>0.006</v>
+      </c>
+      <c r="M171">
+        <v>0.01034</v>
+      </c>
+      <c r="N171">
+        <v>0.01266</v>
+      </c>
+      <c r="O171">
+        <v>1845196</v>
+      </c>
+      <c r="P171">
+        <v>5525095</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>56</v>
+      </c>
+      <c r="R171" t="s">
+        <v>57</v>
+      </c>
+      <c r="S171" t="s">
+        <v>58</v>
+      </c>
+      <c r="T171" t="s">
+        <v>59</v>
+      </c>
+      <c r="U171" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
+      <c r="A172" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" t="s">
+        <v>43</v>
+      </c>
+      <c r="D172" t="s">
+        <v>54</v>
+      </c>
+      <c r="E172" t="s">
+        <v>55</v>
+      </c>
+      <c r="F172">
+        <v>130</v>
+      </c>
+      <c r="G172">
+        <v>332.928801995577</v>
+      </c>
+      <c r="H172">
+        <v>2200</v>
+      </c>
+      <c r="I172">
+        <v>1330</v>
+      </c>
+      <c r="J172">
+        <v>25.531914893617</v>
+      </c>
+      <c r="K172">
+        <v>31.9148936170213</v>
+      </c>
+      <c r="L172">
+        <v>58</v>
+      </c>
+      <c r="M172">
+        <v>717.54</v>
+      </c>
+      <c r="N172">
+        <v>984.4</v>
+      </c>
+      <c r="O172">
+        <v>1845196</v>
+      </c>
+      <c r="P172">
+        <v>5525095</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>56</v>
+      </c>
+      <c r="R172" t="s">
+        <v>57</v>
+      </c>
+      <c r="S172" t="s">
+        <v>58</v>
+      </c>
+      <c r="T172" t="s">
+        <v>59</v>
+      </c>
+      <c r="U172" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
+      <c r="A173" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" t="s">
+        <v>26</v>
+      </c>
+      <c r="C173" t="s">
+        <v>39</v>
+      </c>
+      <c r="D173" t="s">
+        <v>54</v>
+      </c>
+      <c r="E173" t="s">
+        <v>55</v>
+      </c>
+      <c r="F173">
+        <v>130</v>
+      </c>
+      <c r="G173">
+        <v>332.928801995577</v>
+      </c>
+      <c r="H173">
+        <v>2200</v>
+      </c>
+      <c r="I173">
+        <v>1330</v>
+      </c>
+      <c r="J173">
+        <v>25.531914893617</v>
+      </c>
+      <c r="K173">
+        <v>31.9148936170213</v>
+      </c>
+      <c r="L173">
+        <v>58</v>
+      </c>
+      <c r="M173">
+        <v>717.54</v>
+      </c>
+      <c r="N173">
+        <v>984.4</v>
+      </c>
+      <c r="O173">
+        <v>1845196</v>
+      </c>
+      <c r="P173">
+        <v>5525095</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>56</v>
+      </c>
+      <c r="R173" t="s">
+        <v>57</v>
+      </c>
+      <c r="S173" t="s">
+        <v>58</v>
+      </c>
+      <c r="T173" t="s">
+        <v>59</v>
+      </c>
+      <c r="U173" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
+      <c r="A174" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174" t="s">
+        <v>54</v>
+      </c>
+      <c r="E174" t="s">
+        <v>55</v>
+      </c>
+      <c r="F174">
+        <v>130</v>
+      </c>
+      <c r="G174">
+        <v>332.928801995577</v>
+      </c>
+      <c r="H174">
+        <v>2200</v>
+      </c>
+      <c r="I174">
+        <v>1330</v>
+      </c>
+      <c r="J174">
+        <v>25.531914893617</v>
+      </c>
+      <c r="K174">
+        <v>31.9148936170213</v>
+      </c>
+      <c r="L174">
+        <v>58</v>
+      </c>
+      <c r="M174">
+        <v>717.54</v>
+      </c>
+      <c r="N174">
+        <v>984.4</v>
+      </c>
+      <c r="O174">
+        <v>1845196</v>
+      </c>
+      <c r="P174">
+        <v>5525095</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>56</v>
+      </c>
+      <c r="R174" t="s">
+        <v>57</v>
+      </c>
+      <c r="S174" t="s">
+        <v>58</v>
+      </c>
+      <c r="T174" t="s">
+        <v>59</v>
+      </c>
+      <c r="U174" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" t="s">
+        <v>54</v>
+      </c>
+      <c r="E175" t="s">
+        <v>55</v>
+      </c>
+      <c r="F175">
+        <v>130</v>
+      </c>
+      <c r="G175">
+        <v>332.928801995577</v>
+      </c>
+      <c r="H175">
+        <v>2200</v>
+      </c>
+      <c r="I175">
+        <v>1330</v>
+      </c>
+      <c r="J175">
+        <v>25.531914893617</v>
+      </c>
+      <c r="K175">
+        <v>31.9148936170213</v>
+      </c>
+      <c r="L175">
+        <v>58</v>
+      </c>
+      <c r="M175">
+        <v>717.54</v>
+      </c>
+      <c r="N175">
+        <v>984.4</v>
+      </c>
+      <c r="O175">
+        <v>1845196</v>
+      </c>
+      <c r="P175">
+        <v>5525095</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>56</v>
+      </c>
+      <c r="R175" t="s">
+        <v>57</v>
+      </c>
+      <c r="S175" t="s">
+        <v>58</v>
+      </c>
+      <c r="T175" t="s">
+        <v>59</v>
+      </c>
+      <c r="U175" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
+      <c r="A176" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" t="s">
+        <v>29</v>
+      </c>
+      <c r="C176" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" t="s">
+        <v>54</v>
+      </c>
+      <c r="E176" t="s">
+        <v>55</v>
+      </c>
+      <c r="F176">
+        <v>0.007889999999999999</v>
+      </c>
+      <c r="G176">
+        <v>0.009103683032697801</v>
+      </c>
+      <c r="H176">
+        <v>0.0329027150070411</v>
+      </c>
+      <c r="I176">
+        <v>0.02404</v>
+      </c>
+      <c r="L176">
+        <v>0.00976</v>
+      </c>
+      <c r="M176">
+        <v>0.01442</v>
+      </c>
+      <c r="N176">
+        <v>0.02186</v>
+      </c>
+      <c r="O176">
+        <v>1845196</v>
+      </c>
+      <c r="P176">
+        <v>5525095</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>56</v>
+      </c>
+      <c r="R176" t="s">
+        <v>57</v>
+      </c>
+      <c r="S176" t="s">
+        <v>58</v>
+      </c>
+      <c r="T176" t="s">
+        <v>59</v>
+      </c>
+      <c r="U176" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
+      <c r="A177" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>30</v>
+      </c>
+      <c r="C177" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" t="s">
+        <v>54</v>
+      </c>
+      <c r="E177" t="s">
+        <v>55</v>
+      </c>
+      <c r="F177">
+        <v>0.007889999999999999</v>
+      </c>
+      <c r="G177">
+        <v>0.009103683032697801</v>
+      </c>
+      <c r="H177">
+        <v>0.0329027150070411</v>
+      </c>
+      <c r="I177">
+        <v>0.02404</v>
+      </c>
+      <c r="L177">
+        <v>0.00976</v>
+      </c>
+      <c r="M177">
+        <v>0.01442</v>
+      </c>
+      <c r="N177">
+        <v>0.02186</v>
+      </c>
+      <c r="O177">
+        <v>1845196</v>
+      </c>
+      <c r="P177">
+        <v>5525095</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>56</v>
+      </c>
+      <c r="R177" t="s">
+        <v>57</v>
+      </c>
+      <c r="S177" t="s">
+        <v>58</v>
+      </c>
+      <c r="T177" t="s">
+        <v>59</v>
+      </c>
+      <c r="U177" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" t="s">
+        <v>54</v>
+      </c>
+      <c r="E178" t="s">
+        <v>55</v>
+      </c>
+      <c r="F178">
+        <v>0.637</v>
+      </c>
+      <c r="G178">
+        <v>0.638104166666667</v>
+      </c>
+      <c r="H178">
+        <v>1.13</v>
+      </c>
+      <c r="I178">
+        <v>0.9263</v>
+      </c>
+      <c r="L178">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="M178">
+        <v>0.7956800000000001</v>
+      </c>
+      <c r="N178">
+        <v>0.90254</v>
+      </c>
+      <c r="O178">
+        <v>1845196</v>
+      </c>
+      <c r="P178">
+        <v>5525095</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>56</v>
+      </c>
+      <c r="R178" t="s">
+        <v>57</v>
+      </c>
+      <c r="S178" t="s">
+        <v>58</v>
+      </c>
+      <c r="T178" t="s">
+        <v>59</v>
+      </c>
+      <c r="U178" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21">
+      <c r="A179" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" t="s">
+        <v>32</v>
+      </c>
+      <c r="C179" t="s">
+        <v>40</v>
+      </c>
+      <c r="D179" t="s">
+        <v>54</v>
+      </c>
+      <c r="E179" t="s">
+        <v>55</v>
+      </c>
+      <c r="F179">
+        <v>0.637</v>
+      </c>
+      <c r="G179">
+        <v>0.638104166666667</v>
+      </c>
+      <c r="H179">
+        <v>1.13</v>
+      </c>
+      <c r="I179">
+        <v>0.9263</v>
+      </c>
+      <c r="L179">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="M179">
+        <v>0.7956800000000001</v>
+      </c>
+      <c r="N179">
+        <v>0.90254</v>
+      </c>
+      <c r="O179">
+        <v>1845196</v>
+      </c>
+      <c r="P179">
+        <v>5525095</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>56</v>
+      </c>
+      <c r="R179" t="s">
+        <v>57</v>
+      </c>
+      <c r="S179" t="s">
+        <v>58</v>
+      </c>
+      <c r="T179" t="s">
+        <v>59</v>
+      </c>
+      <c r="U179" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
+      <c r="A180" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" t="s">
+        <v>33</v>
+      </c>
+      <c r="D180" t="s">
+        <v>54</v>
+      </c>
+      <c r="E180" t="s">
+        <v>55</v>
+      </c>
+      <c r="F180">
+        <v>0.6475</v>
+      </c>
+      <c r="G180">
+        <v>0.651822916666667</v>
+      </c>
+      <c r="H180">
+        <v>1.159</v>
+      </c>
+      <c r="I180">
+        <v>0.9375</v>
+      </c>
+      <c r="L180">
+        <v>0.586</v>
+      </c>
+      <c r="M180">
+        <v>0.8093399999999999</v>
+      </c>
+      <c r="N180">
+        <v>0.91684</v>
+      </c>
+      <c r="O180">
+        <v>1845196</v>
+      </c>
+      <c r="P180">
+        <v>5525095</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>56</v>
+      </c>
+      <c r="R180" t="s">
+        <v>57</v>
+      </c>
+      <c r="S180" t="s">
+        <v>58</v>
+      </c>
+      <c r="T180" t="s">
+        <v>59</v>
+      </c>
+      <c r="U180" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s">
+        <v>54</v>
+      </c>
+      <c r="E181" t="s">
+        <v>55</v>
+      </c>
+      <c r="F181">
+        <v>0.6475</v>
+      </c>
+      <c r="G181">
+        <v>0.651822916666667</v>
+      </c>
+      <c r="H181">
+        <v>1.159</v>
+      </c>
+      <c r="I181">
+        <v>0.9375</v>
+      </c>
+      <c r="L181">
+        <v>0.586</v>
+      </c>
+      <c r="M181">
+        <v>0.8093399999999999</v>
+      </c>
+      <c r="N181">
+        <v>0.91684</v>
+      </c>
+      <c r="O181">
+        <v>1845196</v>
+      </c>
+      <c r="P181">
+        <v>5525095</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>56</v>
+      </c>
+      <c r="R181" t="s">
+        <v>57</v>
+      </c>
+      <c r="S181" t="s">
+        <v>58</v>
+      </c>
+      <c r="T181" t="s">
+        <v>59</v>
+      </c>
+      <c r="U181" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" t="s">
+        <v>35</v>
+      </c>
+      <c r="D182" t="s">
+        <v>54</v>
+      </c>
+      <c r="E182" t="s">
+        <v>55</v>
+      </c>
+      <c r="F182">
+        <v>0.8</v>
+      </c>
+      <c r="G182">
+        <v>0.817916666666667</v>
+      </c>
+      <c r="H182">
+        <v>1.35</v>
+      </c>
+      <c r="I182">
+        <v>1.098</v>
+      </c>
+      <c r="L182">
+        <v>0.75</v>
+      </c>
+      <c r="M182">
+        <v>0.9834000000000001</v>
+      </c>
+      <c r="N182">
+        <v>1.043</v>
+      </c>
+      <c r="O182">
+        <v>1845196</v>
+      </c>
+      <c r="P182">
+        <v>5525095</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>56</v>
+      </c>
+      <c r="R182" t="s">
+        <v>57</v>
+      </c>
+      <c r="S182" t="s">
+        <v>58</v>
+      </c>
+      <c r="T182" t="s">
+        <v>59</v>
+      </c>
+      <c r="U182" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>36</v>
+      </c>
+      <c r="D183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E183" t="s">
+        <v>55</v>
+      </c>
+      <c r="F183">
+        <v>0.8</v>
+      </c>
+      <c r="G183">
+        <v>0.817916666666667</v>
+      </c>
+      <c r="H183">
+        <v>1.35</v>
+      </c>
+      <c r="I183">
+        <v>1.098</v>
+      </c>
+      <c r="L183">
+        <v>0.75</v>
+      </c>
+      <c r="M183">
+        <v>0.9834000000000001</v>
+      </c>
+      <c r="N183">
+        <v>1.043</v>
+      </c>
+      <c r="O183">
+        <v>1845196</v>
+      </c>
+      <c r="P183">
+        <v>5525095</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>56</v>
+      </c>
+      <c r="R183" t="s">
+        <v>57</v>
+      </c>
+      <c r="S183" t="s">
+        <v>58</v>
+      </c>
+      <c r="T183" t="s">
+        <v>59</v>
+      </c>
+      <c r="U183" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>37</v>
+      </c>
+      <c r="D184" t="s">
+        <v>54</v>
+      </c>
+      <c r="E184" t="s">
+        <v>55</v>
+      </c>
+      <c r="F184">
+        <v>0.0195</v>
+      </c>
+      <c r="G184">
+        <v>0.024</v>
+      </c>
+      <c r="H184">
+        <v>0.098</v>
+      </c>
+      <c r="I184">
+        <v>0.0596</v>
+      </c>
+      <c r="L184">
+        <v>0.015</v>
+      </c>
+      <c r="M184">
+        <v>0.03406</v>
+      </c>
+      <c r="N184">
+        <v>0.0473</v>
+      </c>
+      <c r="O184">
+        <v>1845196</v>
+      </c>
+      <c r="P184">
+        <v>5525095</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>56</v>
+      </c>
+      <c r="R184" t="s">
+        <v>57</v>
+      </c>
+      <c r="S184" t="s">
+        <v>58</v>
+      </c>
+      <c r="T184" t="s">
+        <v>59</v>
+      </c>
+      <c r="U184" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>38</v>
+      </c>
+      <c r="D185" t="s">
+        <v>54</v>
+      </c>
+      <c r="E185" t="s">
+        <v>55</v>
+      </c>
+      <c r="F185">
+        <v>0.0195</v>
+      </c>
+      <c r="G185">
+        <v>0.024</v>
+      </c>
+      <c r="H185">
+        <v>0.098</v>
+      </c>
+      <c r="I185">
+        <v>0.0596</v>
+      </c>
+      <c r="L185">
+        <v>0.015</v>
+      </c>
+      <c r="M185">
+        <v>0.03406</v>
+      </c>
+      <c r="N185">
+        <v>0.0473</v>
+      </c>
+      <c r="O185">
+        <v>1845196</v>
+      </c>
+      <c r="P185">
+        <v>5525095</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>56</v>
+      </c>
+      <c r="R185" t="s">
+        <v>57</v>
+      </c>
+      <c r="S185" t="s">
+        <v>58</v>
+      </c>
+      <c r="T185" t="s">
+        <v>59</v>
+      </c>
+      <c r="U185" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
